--- a/秋招复习.xlsx
+++ b/秋招复习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BC9EA4-4CAD-427C-A6E7-815226F7C73D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8B8853-BB66-43EB-AF84-CBDAF174D10B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E9FDC2C-8DB9-4205-9D67-D631D07F7D3E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>深入编译链接和运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -655,10 +655,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浅拷贝，深拷贝，写时拷贝技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内存池的设计及其思想</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1126,6 +1122,483 @@
   </si>
   <si>
     <t>符号重定位：根据符号解析时所查到的确定的地址，替换之前编译时因不确定而置为0的外部符号的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静多态和动多态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动多态：使用指针调用虚函数时，运行时才确定的多态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静多态：模板，函数的重载，编译期确定的多态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、当我们不给类提供析构，构造，拷贝构造函数时，编译期会自动生成这些函数，析构和构造都是空函数，而拷贝构造是将另一个对象的内存拷贝给该对象（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浅拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浅拷贝只会拷贝对象的内存，不会拷贝对象所占用的额外空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这是非常致命的错误</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3、拷贝构造函数不能使用值传递的方式传参，因为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从形参到实参的赋值过程也是一次构造，会形成无限递归</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写时拷贝技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核只为新生成的子进程创建虚拟空间结构，用来复制父进程的虚拟空间结构，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是不为这些段分配物理内存，只有当相应的段有修改时，再为子进程重新申请一个新的段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考ptmalloc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、当我们的对象占用了除自己内存以外的其他系统资源时，需要程序员自己实现拷贝构造，以免发生浅拷贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、赋值运算符的重载函数同理，有外部资源时，也需要自己手动实现，以免发生浅拷贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赋值运算符重载函数需要先将当前对象所占用的内存释放掉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、赋值运算符重载要防止自赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、赋值运算符重载的参数可以值传递，但是会比引用传递多一次对象的构造和析构，效率低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、临时对象构造新对象被优化，临时对象赋值给其他对象不优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引用变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引用一个临时对象，会扩展该临时对象的生存周期（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指针不行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、堆向高地址增长，栈向低地址增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆分配算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、空闲链表：用户申请空间时，遍历链表，找到合适大小的块并将其拆分，用户释放空间时，再将其合并到空闲链表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2、位图：将整个堆区划分为大量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大小相同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的块，当用户请求内存时，分配整数个空间给用户，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一个块称为头，其余称为主体</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每个块有三种状态（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>头/空闲/主体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>），用两个bit就可以表示，因此称为位图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象池的管理方法可以是位图和空闲链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2、对象池：如果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每次申请的空间大小一致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那么将堆区空间划分为这个大小的块，每次申请时只需找到一个块就行，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、局部变量在栈中的访问都是通过栈底指针ebp的偏移量进行访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、第二步将主调方的下一行指令地址入栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、第三步将调用函数的栈底地址（ebp寄存器的值）压栈，并开辟被调用函数的栈帧空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7、主函数也是被其他函数调用的：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mainCRTStartup()函数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6、将被调方栈帧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初始化为无效值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0xCCCCCCCC</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、函数返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、内置类型用寄存器带出，eax，edx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3、函数调用时第一步是先压实参（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从右向左入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小于8字节时用寄存器传递，大于8字节时内存拷贝的方式实现</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、大于8字节时，在函数调用之前预先在调用方栈帧开辟一块空间，开辟栈帧时将该空间地址压入被调用方的栈帧中，返回时用ebp+8找到对应的位置进行返回值的内存拷贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_cdecl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_stdcall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_fastcall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++的成员函数调用约定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_thiscall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、函数调用约定(影响三个方面：1、函数产生的符号不同；2、函数参数入栈顺序不同；3、决定谁来清理形参的内存)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c语言调用约定，调用方开辟形参内存，调用方释放形参内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快速调用约定，调用方开辟形参内存，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最后8个字节的实参通过寄存器带入被调方栈帧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>windows标准的调用约定，调用方开辟形参内存，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被调方释放</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,13 +1759,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>542086</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>161249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1330,13 +1803,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>541914</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>95035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1374,13 +1847,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>475419</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>104242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1418,13 +1891,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>647105</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>161430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1460,16 +1933,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>446762</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152109</xdr:rowOff>
+      <xdr:colOff>408662</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1492,7 +1965,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915400" y="904875"/>
+          <a:off x="8877300" y="447675"/>
           <a:ext cx="7304762" cy="2323809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1506,13 +1979,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>637411</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>114177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1538,6 +2011,182 @@
         <a:xfrm>
           <a:off x="7553325" y="14154150"/>
           <a:ext cx="6114286" cy="980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>227628</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>161746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EA19F0-74FD-4E11-AE5C-92C2CA4785DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="19545300"/>
+          <a:ext cx="7771428" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123211</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>47243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66ECA9CB-A309-4C1E-812E-572D407E851E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="18888075"/>
+          <a:ext cx="4914286" cy="3057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>113676</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>171345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC36EAE1-8C18-44F3-89F3-EEC919F4F661}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="21231225"/>
+          <a:ext cx="4990476" cy="838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>370571</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5761030-FBE0-44AD-8847-3127DF41D5FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="3076575"/>
+          <a:ext cx="7228571" cy="1552381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1895,10 +2544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CE287A-0C8C-4B0B-9B19-E5732AE1C69A}">
-  <dimension ref="B2:R108"/>
+  <dimension ref="A2:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1928,7 +2577,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -1944,7 +2593,7 @@
         <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -1952,22 +2601,22 @@
         <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
@@ -1983,372 +2632,572 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
         <v>77</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R43" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
         <v>78</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R44" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D42" s="4" t="s">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D64" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" t="s">
+        <v>113</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" t="s">
+        <v>115</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>109</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" t="s">
-        <v>116</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E81" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E83" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E84" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E86" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E58" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E59" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E61" s="5" t="s">
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E62" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E64" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E65" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E66" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E69" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="L78" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E92" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E94" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D95" t="s">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>161</v>
+      </c>
+      <c r="D132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D148" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D100" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C102" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C103" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C104" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2362,10 +3211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F108AD-10B5-4803-9828-06701D2E1990}">
-  <dimension ref="B3:I60"/>
+  <dimension ref="B3:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2603,6 +3452,11 @@
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2648,7 +3502,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2663,7 +3517,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/秋招复习.xlsx
+++ b/秋招复习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8B8853-BB66-43EB-AF84-CBDAF174D10B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016864C4-DCAE-4B38-A5C4-7115FE56481A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E9FDC2C-8DB9-4205-9D67-D631D07F7D3E}"/>
   </bookViews>
@@ -1694,12 +1694,235 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1708,7 +1931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1733,7 +1956,82 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1759,13 +2057,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>542086</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>161249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1803,13 +2101,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>541914</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1847,13 +2145,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>475419</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>104242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1891,13 +2189,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>647105</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>161430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1979,13 +2277,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>637411</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>114177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2023,13 +2321,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>227628</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>161746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2067,13 +2365,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123211</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>47243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2111,13 +2409,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>113676</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>171345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2544,662 +2842,4289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CE287A-0C8C-4B0B-9B19-E5732AE1C69A}">
-  <dimension ref="A2:R152"/>
+  <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="10"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B3" s="22"/>
+      <c r="C3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="25"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="13"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="13"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="13"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="C7" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="13"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="27" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="13"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="23" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="13"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="13"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="11"/>
+      <c r="C13" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="13"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="13"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="13"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="11"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="13"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="13"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="13"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="29"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+      <c r="C20" s="20" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="13"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+      <c r="C21" s="23" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="13"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="13"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="11"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="13"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="11"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="12" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="13"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="11"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="13"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="11"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="30" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="13"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="11"/>
+      <c r="C27" s="20" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="13"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="11"/>
+      <c r="C28" s="20" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="13"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="11"/>
+      <c r="C29" s="20" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="13"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="11"/>
+      <c r="C30" s="20" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="13"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="11"/>
+      <c r="C31" s="20" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="13"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="11"/>
+      <c r="C32" s="20" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="13"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B33" s="11"/>
+      <c r="C33" s="23" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="13"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B34" s="11"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="12" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="13"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B35" s="11"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="13"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B36" s="11"/>
+      <c r="C36" s="23" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="13"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B37" s="11"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="12" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="13"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B38" s="11"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="12" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="13"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B39" s="11"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="13"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B40" s="11"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="30" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="13"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B41" s="11"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="13"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B42" s="11"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="13"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B43" s="11"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="13"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B44" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" s="27" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="29"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B45" s="11"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="R43" t="s">
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="25"/>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B46" s="11"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="R44" s="4" t="s">
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="13"/>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B47" s="11"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="13"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B48" s="11"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="13"/>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B49" s="11"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="30" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B50" s="11"/>
+      <c r="C50" s="23" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="25"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B51" s="11"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="13"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B52" s="11"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="13"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B53" s="11"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="30" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B54" s="11"/>
+      <c r="C54" s="23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="25"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B55" s="11"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="13"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B56" s="11"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="13"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B57" s="11"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="13"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B58" s="11"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="30" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="30"/>
+      <c r="V58" s="30"/>
+      <c r="W58" s="30"/>
+      <c r="X58" s="32"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B59" s="11"/>
+      <c r="C59" s="23" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="24"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="24"/>
+      <c r="W59" s="24"/>
+      <c r="X59" s="25"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B60" s="11"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="13"/>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B61" s="11"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="13"/>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B62" s="11"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D61" t="s">
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="13"/>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B63" s="11"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="13"/>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B64" s="11"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D63" t="s">
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="13"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B65" s="11"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D64" s="4" t="s">
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="13"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B66" s="11"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="33" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="30"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="32"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B67" s="11"/>
+      <c r="C67" s="23" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="25"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B68" s="11"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D67" t="s">
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="13"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B69" s="11"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D68" t="s">
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="13"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B70" s="11"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="30" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="30"/>
+      <c r="U70" s="30"/>
+      <c r="V70" s="30"/>
+      <c r="W70" s="30"/>
+      <c r="X70" s="32"/>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B71" s="11"/>
+      <c r="C71" s="23" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D70" t="s">
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="24"/>
+      <c r="W71" s="24"/>
+      <c r="X71" s="25"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B72" s="11"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D71" t="s">
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="13"/>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B73" s="11"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="30" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="30"/>
+      <c r="Q73" s="30"/>
+      <c r="R73" s="30"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="30"/>
+      <c r="U73" s="30"/>
+      <c r="V73" s="30"/>
+      <c r="W73" s="30"/>
+      <c r="X73" s="32"/>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B74" s="11"/>
+      <c r="C74" s="20" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D73" t="s">
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="13"/>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B75" s="11"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="13"/>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B76" s="11"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="13"/>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B77" s="11"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="13"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B78" s="11"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="13"/>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B79" s="26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
+      <c r="C79" s="27"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="28"/>
+      <c r="P79" s="28"/>
+      <c r="Q79" s="28"/>
+      <c r="R79" s="28"/>
+      <c r="S79" s="28"/>
+      <c r="T79" s="28"/>
+      <c r="U79" s="28"/>
+      <c r="V79" s="28"/>
+      <c r="W79" s="28"/>
+      <c r="X79" s="29"/>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B80" s="11"/>
+      <c r="C80" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D80" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="13"/>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B81" s="11"/>
+      <c r="C81" s="23" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D77" t="s">
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="24"/>
+      <c r="V81" s="24"/>
+      <c r="W81" s="24"/>
+      <c r="X81" s="25"/>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B82" s="11"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E82" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="F82" s="12"/>
+      <c r="G82" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E78" t="s">
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="13"/>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B83" s="11"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D79" t="s">
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="13"/>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B84" s="11"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E84" s="14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E80" t="s">
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="13"/>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B85" s="11"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E81" s="4" t="s">
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="13"/>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B86" s="11"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="14" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E82" t="s">
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="13"/>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B87" s="11"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E83" s="5" t="s">
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
+      <c r="X87" s="13"/>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B88" s="11"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="16" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E84" s="4" t="s">
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="13"/>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B89" s="11"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="14" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D85" t="s">
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="13"/>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B90" s="11"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="12" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E86" s="5" t="s">
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="13"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B91" s="11"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="16" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E87" t="s">
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="13"/>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B92" s="11"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E88" t="s">
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="13"/>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B93" s="11"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E89" t="s">
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="13"/>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B94" s="11"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E90" t="s">
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="13"/>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B95" s="11"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E91" t="s">
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="13"/>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B96" s="11"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="100" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L100" s="8" t="s">
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="13"/>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B97" s="11"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="13"/>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B98" s="11"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="13"/>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B99" s="11"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="12"/>
+      <c r="X99" s="13"/>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B100" s="11"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="12"/>
+      <c r="X100" s="13"/>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B101" s="11"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="13"/>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B102" s="11"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="13"/>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B103" s="11"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
+      <c r="X103" s="13"/>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B104" s="11"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="13"/>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B105" s="11"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="15" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E114" t="s">
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="13"/>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B106" s="11"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="13"/>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B107" s="11"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="13"/>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B108" s="11"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+      <c r="W108" s="12"/>
+      <c r="X108" s="13"/>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B109" s="11"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="12"/>
+      <c r="X109" s="13"/>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B110" s="11"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="13"/>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B111" s="11"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="12"/>
+      <c r="X111" s="13"/>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B112" s="11"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="13"/>
+    </row>
+    <row r="113" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B113" s="11"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="12"/>
+      <c r="X113" s="13"/>
+    </row>
+    <row r="114" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B114" s="11"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="12"/>
+      <c r="X114" s="13"/>
+    </row>
+    <row r="115" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B115" s="11"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+      <c r="W115" s="12"/>
+      <c r="X115" s="13"/>
+    </row>
+    <row r="116" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B116" s="11"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="13"/>
+    </row>
+    <row r="117" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B117" s="11"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="13"/>
+    </row>
+    <row r="118" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B118" s="11"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="12"/>
+      <c r="X118" s="13"/>
+    </row>
+    <row r="119" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B119" s="11"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D115" t="s">
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="12"/>
+      <c r="X119" s="13"/>
+    </row>
+    <row r="120" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B120" s="11"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E116" t="s">
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12"/>
+      <c r="U120" s="12"/>
+      <c r="V120" s="12"/>
+      <c r="W120" s="12"/>
+      <c r="X120" s="13"/>
+    </row>
+    <row r="121" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B121" s="11"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D117" t="s">
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="12"/>
+      <c r="U121" s="12"/>
+      <c r="V121" s="12"/>
+      <c r="W121" s="12"/>
+      <c r="X121" s="13"/>
+    </row>
+    <row r="122" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B122" s="11"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="12" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E118" t="s">
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
+      <c r="S122" s="12"/>
+      <c r="T122" s="12"/>
+      <c r="U122" s="12"/>
+      <c r="V122" s="12"/>
+      <c r="W122" s="12"/>
+      <c r="X122" s="13"/>
+    </row>
+    <row r="123" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B123" s="11"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E119" t="s">
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="12"/>
+      <c r="U123" s="12"/>
+      <c r="V123" s="12"/>
+      <c r="W123" s="12"/>
+      <c r="X123" s="13"/>
+    </row>
+    <row r="124" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B124" s="11"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D120" t="s">
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
+      <c r="U124" s="12"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="12"/>
+      <c r="X124" s="13"/>
+    </row>
+    <row r="125" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B125" s="11"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C121" t="s">
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
+      <c r="O125" s="12"/>
+      <c r="P125" s="12"/>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
+      <c r="S125" s="12"/>
+      <c r="T125" s="12"/>
+      <c r="U125" s="12"/>
+      <c r="V125" s="12"/>
+      <c r="W125" s="12"/>
+      <c r="X125" s="13"/>
+    </row>
+    <row r="126" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B126" s="11"/>
+      <c r="C126" s="23" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D122" t="s">
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+      <c r="O126" s="24"/>
+      <c r="P126" s="24"/>
+      <c r="Q126" s="24"/>
+      <c r="R126" s="24"/>
+      <c r="S126" s="24"/>
+      <c r="T126" s="24"/>
+      <c r="U126" s="24"/>
+      <c r="V126" s="24"/>
+      <c r="W126" s="24"/>
+      <c r="X126" s="25"/>
+    </row>
+    <row r="127" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B127" s="11"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D123" t="s">
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="12"/>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="12"/>
+      <c r="T127" s="12"/>
+      <c r="U127" s="12"/>
+      <c r="V127" s="12"/>
+      <c r="W127" s="12"/>
+      <c r="X127" s="13"/>
+    </row>
+    <row r="128" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B128" s="11"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D124" t="s">
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="12"/>
+      <c r="P128" s="12"/>
+      <c r="Q128" s="12"/>
+      <c r="R128" s="12"/>
+      <c r="S128" s="12"/>
+      <c r="T128" s="12"/>
+      <c r="U128" s="12"/>
+      <c r="V128" s="12"/>
+      <c r="W128" s="12"/>
+      <c r="X128" s="13"/>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B129" s="11"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D125" t="s">
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="12"/>
+      <c r="P129" s="12"/>
+      <c r="Q129" s="12"/>
+      <c r="R129" s="12"/>
+      <c r="S129" s="12"/>
+      <c r="T129" s="12"/>
+      <c r="U129" s="12"/>
+      <c r="V129" s="12"/>
+      <c r="W129" s="12"/>
+      <c r="X129" s="13"/>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B130" s="11"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="30" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C126" t="s">
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
+      <c r="K130" s="30"/>
+      <c r="L130" s="30"/>
+      <c r="M130" s="30"/>
+      <c r="N130" s="30"/>
+      <c r="O130" s="30"/>
+      <c r="P130" s="30"/>
+      <c r="Q130" s="30"/>
+      <c r="R130" s="30"/>
+      <c r="S130" s="30"/>
+      <c r="T130" s="30"/>
+      <c r="U130" s="30"/>
+      <c r="V130" s="30"/>
+      <c r="W130" s="30"/>
+      <c r="X130" s="32"/>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B131" s="11"/>
+      <c r="C131" s="20" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C127" t="s">
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="12"/>
+      <c r="O131" s="12"/>
+      <c r="P131" s="12"/>
+      <c r="Q131" s="12"/>
+      <c r="R131" s="12"/>
+      <c r="S131" s="12"/>
+      <c r="T131" s="12"/>
+      <c r="U131" s="12"/>
+      <c r="V131" s="12"/>
+      <c r="W131" s="12"/>
+      <c r="X131" s="13"/>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B132" s="11"/>
+      <c r="C132" s="23" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D128" t="s">
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="24"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="24"/>
+      <c r="M132" s="24"/>
+      <c r="N132" s="24"/>
+      <c r="O132" s="24"/>
+      <c r="P132" s="24"/>
+      <c r="Q132" s="24"/>
+      <c r="R132" s="24"/>
+      <c r="S132" s="24"/>
+      <c r="T132" s="24"/>
+      <c r="U132" s="24"/>
+      <c r="V132" s="24"/>
+      <c r="W132" s="24"/>
+      <c r="X132" s="25"/>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B133" s="11"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="12" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D129" t="s">
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="12"/>
+      <c r="P133" s="12"/>
+      <c r="Q133" s="12"/>
+      <c r="R133" s="12"/>
+      <c r="S133" s="12"/>
+      <c r="T133" s="12"/>
+      <c r="U133" s="12"/>
+      <c r="V133" s="12"/>
+      <c r="W133" s="12"/>
+      <c r="X133" s="13"/>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B134" s="11"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="12" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D130" t="s">
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
+      <c r="O134" s="12"/>
+      <c r="P134" s="12"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="12"/>
+      <c r="S134" s="12"/>
+      <c r="T134" s="12"/>
+      <c r="U134" s="12"/>
+      <c r="V134" s="12"/>
+      <c r="W134" s="12"/>
+      <c r="X134" s="13"/>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B135" s="11"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="12" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D131" t="s">
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="12"/>
+      <c r="P135" s="12"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="12"/>
+      <c r="S135" s="12"/>
+      <c r="T135" s="12"/>
+      <c r="U135" s="12"/>
+      <c r="V135" s="12"/>
+      <c r="W135" s="12"/>
+      <c r="X135" s="13"/>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B136" s="11"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="12"/>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="12"/>
+      <c r="S136" s="12"/>
+      <c r="T136" s="12"/>
+      <c r="U136" s="12"/>
+      <c r="V136" s="12"/>
+      <c r="W136" s="12"/>
+      <c r="X136" s="13"/>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>161</v>
       </c>
-      <c r="D132" t="s">
+      <c r="B137" s="11"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="12" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D133" t="s">
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
+      <c r="O137" s="12"/>
+      <c r="P137" s="12"/>
+      <c r="Q137" s="12"/>
+      <c r="R137" s="12"/>
+      <c r="S137" s="12"/>
+      <c r="T137" s="12"/>
+      <c r="U137" s="12"/>
+      <c r="V137" s="12"/>
+      <c r="W137" s="12"/>
+      <c r="X137" s="13"/>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B138" s="11"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D134" t="s">
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="12"/>
+      <c r="O138" s="12"/>
+      <c r="P138" s="12"/>
+      <c r="Q138" s="12"/>
+      <c r="R138" s="12"/>
+      <c r="S138" s="12"/>
+      <c r="T138" s="12"/>
+      <c r="U138" s="12"/>
+      <c r="V138" s="12"/>
+      <c r="W138" s="12"/>
+      <c r="X138" s="13"/>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B139" s="11"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="12" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D135" t="s">
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="12"/>
+      <c r="P139" s="12"/>
+      <c r="Q139" s="12"/>
+      <c r="R139" s="12"/>
+      <c r="S139" s="12"/>
+      <c r="T139" s="12"/>
+      <c r="U139" s="12"/>
+      <c r="V139" s="12"/>
+      <c r="W139" s="12"/>
+      <c r="X139" s="13"/>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B140" s="11"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="12" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D136" t="s">
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="12"/>
+      <c r="O140" s="12"/>
+      <c r="P140" s="12"/>
+      <c r="Q140" s="12"/>
+      <c r="R140" s="12"/>
+      <c r="S140" s="12"/>
+      <c r="T140" s="12"/>
+      <c r="U140" s="12"/>
+      <c r="V140" s="12"/>
+      <c r="W140" s="12"/>
+      <c r="X140" s="13"/>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B141" s="11"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D137" t="s">
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+      <c r="O141" s="12"/>
+      <c r="P141" s="12"/>
+      <c r="Q141" s="12"/>
+      <c r="R141" s="12"/>
+      <c r="S141" s="12"/>
+      <c r="T141" s="12"/>
+      <c r="U141" s="12"/>
+      <c r="V141" s="12"/>
+      <c r="W141" s="12"/>
+      <c r="X141" s="13"/>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B142" s="11"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="12" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C143" t="s">
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="12"/>
+      <c r="P142" s="12"/>
+      <c r="Q142" s="12"/>
+      <c r="R142" s="12"/>
+      <c r="S142" s="12"/>
+      <c r="T142" s="12"/>
+      <c r="U142" s="12"/>
+      <c r="V142" s="12"/>
+      <c r="W142" s="12"/>
+      <c r="X142" s="13"/>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B143" s="11"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="12"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="12"/>
+      <c r="U143" s="12"/>
+      <c r="V143" s="12"/>
+      <c r="W143" s="12"/>
+      <c r="X143" s="13"/>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B144" s="11"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="12"/>
+      <c r="P144" s="12"/>
+      <c r="Q144" s="12"/>
+      <c r="R144" s="12"/>
+      <c r="S144" s="12"/>
+      <c r="T144" s="12"/>
+      <c r="U144" s="12"/>
+      <c r="V144" s="12"/>
+      <c r="W144" s="12"/>
+      <c r="X144" s="13"/>
+    </row>
+    <row r="145" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B145" s="11"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+      <c r="O145" s="12"/>
+      <c r="P145" s="12"/>
+      <c r="Q145" s="12"/>
+      <c r="R145" s="12"/>
+      <c r="S145" s="12"/>
+      <c r="T145" s="12"/>
+      <c r="U145" s="12"/>
+      <c r="V145" s="12"/>
+      <c r="W145" s="12"/>
+      <c r="X145" s="13"/>
+    </row>
+    <row r="146" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B146" s="11"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="30"/>
+      <c r="M146" s="30"/>
+      <c r="N146" s="30"/>
+      <c r="O146" s="30"/>
+      <c r="P146" s="30"/>
+      <c r="Q146" s="30"/>
+      <c r="R146" s="30"/>
+      <c r="S146" s="30"/>
+      <c r="T146" s="30"/>
+      <c r="U146" s="30"/>
+      <c r="V146" s="30"/>
+      <c r="W146" s="30"/>
+      <c r="X146" s="32"/>
+    </row>
+    <row r="147" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B147" s="11"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="12"/>
+      <c r="N147" s="12"/>
+      <c r="O147" s="12"/>
+      <c r="P147" s="12"/>
+      <c r="Q147" s="12"/>
+      <c r="R147" s="12"/>
+      <c r="S147" s="12"/>
+      <c r="T147" s="12"/>
+      <c r="U147" s="12"/>
+      <c r="V147" s="12"/>
+      <c r="W147" s="12"/>
+      <c r="X147" s="13"/>
+    </row>
+    <row r="148" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B148" s="11"/>
+      <c r="C148" s="23" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D144" t="s">
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24"/>
+      <c r="I148" s="24"/>
+      <c r="J148" s="24"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="24"/>
+      <c r="M148" s="24"/>
+      <c r="N148" s="24"/>
+      <c r="O148" s="24"/>
+      <c r="P148" s="24"/>
+      <c r="Q148" s="24"/>
+      <c r="R148" s="24"/>
+      <c r="S148" s="24"/>
+      <c r="T148" s="24"/>
+      <c r="U148" s="24"/>
+      <c r="V148" s="24"/>
+      <c r="W148" s="24"/>
+      <c r="X148" s="25"/>
+    </row>
+    <row r="149" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B149" s="11"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D145" t="s">
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+      <c r="O149" s="12"/>
+      <c r="P149" s="12"/>
+      <c r="Q149" s="12"/>
+      <c r="R149" s="12"/>
+      <c r="S149" s="12"/>
+      <c r="T149" s="12"/>
+      <c r="U149" s="12"/>
+      <c r="V149" s="12"/>
+      <c r="W149" s="12"/>
+      <c r="X149" s="13"/>
+    </row>
+    <row r="150" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B150" s="11"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="30" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C147" t="s">
+      <c r="E150" s="30"/>
+      <c r="F150" s="30"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="30"/>
+      <c r="I150" s="30"/>
+      <c r="J150" s="30"/>
+      <c r="K150" s="30"/>
+      <c r="L150" s="30"/>
+      <c r="M150" s="30"/>
+      <c r="N150" s="30"/>
+      <c r="O150" s="30"/>
+      <c r="P150" s="30"/>
+      <c r="Q150" s="30"/>
+      <c r="R150" s="30"/>
+      <c r="S150" s="30"/>
+      <c r="T150" s="30"/>
+      <c r="U150" s="30"/>
+      <c r="V150" s="30"/>
+      <c r="W150" s="30"/>
+      <c r="X150" s="32"/>
+    </row>
+    <row r="151" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B151" s="11"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+      <c r="O151" s="12"/>
+      <c r="P151" s="12"/>
+      <c r="Q151" s="12"/>
+      <c r="R151" s="12"/>
+      <c r="S151" s="12"/>
+      <c r="T151" s="12"/>
+      <c r="U151" s="12"/>
+      <c r="V151" s="12"/>
+      <c r="W151" s="12"/>
+      <c r="X151" s="13"/>
+    </row>
+    <row r="152" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B152" s="11"/>
+      <c r="C152" s="20" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D148" s="4" t="s">
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+      <c r="O152" s="12"/>
+      <c r="P152" s="12"/>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="12"/>
+      <c r="S152" s="12"/>
+      <c r="T152" s="12"/>
+      <c r="U152" s="12"/>
+      <c r="V152" s="12"/>
+      <c r="W152" s="12"/>
+      <c r="X152" s="13"/>
+    </row>
+    <row r="153" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B153" s="11"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="14" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12"/>
+      <c r="O153" s="12"/>
+      <c r="P153" s="12"/>
+      <c r="Q153" s="12"/>
+      <c r="R153" s="12"/>
+      <c r="S153" s="12"/>
+      <c r="T153" s="12"/>
+      <c r="U153" s="12"/>
+      <c r="V153" s="12"/>
+      <c r="W153" s="12"/>
+      <c r="X153" s="13"/>
+    </row>
+    <row r="154" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B154" s="11"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="12"/>
+      <c r="Q154" s="12"/>
+      <c r="R154" s="12"/>
+      <c r="S154" s="12"/>
+      <c r="T154" s="12"/>
+      <c r="U154" s="12"/>
+      <c r="V154" s="12"/>
+      <c r="W154" s="12"/>
+      <c r="X154" s="13"/>
+    </row>
+    <row r="155" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B155" s="11"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="12"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
+      <c r="S155" s="12"/>
+      <c r="T155" s="12"/>
+      <c r="U155" s="12"/>
+      <c r="V155" s="12"/>
+      <c r="W155" s="12"/>
+      <c r="X155" s="13"/>
+    </row>
+    <row r="156" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B156" s="11"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="12"/>
+      <c r="O156" s="12"/>
+      <c r="P156" s="12"/>
+      <c r="Q156" s="12"/>
+      <c r="R156" s="12"/>
+      <c r="S156" s="12"/>
+      <c r="T156" s="12"/>
+      <c r="U156" s="12"/>
+      <c r="V156" s="12"/>
+      <c r="W156" s="12"/>
+      <c r="X156" s="13"/>
+    </row>
+    <row r="157" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B157" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
+      <c r="C157" s="20"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="12"/>
+      <c r="O157" s="12"/>
+      <c r="P157" s="12"/>
+      <c r="Q157" s="12"/>
+      <c r="R157" s="12"/>
+      <c r="S157" s="12"/>
+      <c r="T157" s="12"/>
+      <c r="U157" s="12"/>
+      <c r="V157" s="12"/>
+      <c r="W157" s="12"/>
+      <c r="X157" s="13"/>
+    </row>
+    <row r="158" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B158" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
+      <c r="C158" s="20"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="12"/>
+      <c r="N158" s="12"/>
+      <c r="O158" s="12"/>
+      <c r="P158" s="12"/>
+      <c r="Q158" s="12"/>
+      <c r="R158" s="12"/>
+      <c r="S158" s="12"/>
+      <c r="T158" s="12"/>
+      <c r="U158" s="12"/>
+      <c r="V158" s="12"/>
+      <c r="W158" s="12"/>
+      <c r="X158" s="13"/>
+    </row>
+    <row r="159" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B159" s="11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
+      <c r="C159" s="20"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="12"/>
+      <c r="N159" s="12"/>
+      <c r="O159" s="12"/>
+      <c r="P159" s="12"/>
+      <c r="Q159" s="12"/>
+      <c r="R159" s="12"/>
+      <c r="S159" s="12"/>
+      <c r="T159" s="12"/>
+      <c r="U159" s="12"/>
+      <c r="V159" s="12"/>
+      <c r="W159" s="12"/>
+      <c r="X159" s="13"/>
+    </row>
+    <row r="160" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B160" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C160" s="20"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="12"/>
+      <c r="O160" s="12"/>
+      <c r="P160" s="12"/>
+      <c r="Q160" s="12"/>
+      <c r="R160" s="12"/>
+      <c r="S160" s="12"/>
+      <c r="T160" s="12"/>
+      <c r="U160" s="12"/>
+      <c r="V160" s="12"/>
+      <c r="W160" s="12"/>
+      <c r="X160" s="13"/>
+    </row>
+    <row r="161" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="17"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="18"/>
+      <c r="M161" s="18"/>
+      <c r="N161" s="18"/>
+      <c r="O161" s="18"/>
+      <c r="P161" s="18"/>
+      <c r="Q161" s="18"/>
+      <c r="R161" s="18"/>
+      <c r="S161" s="18"/>
+      <c r="T161" s="18"/>
+      <c r="U161" s="18"/>
+      <c r="V161" s="18"/>
+      <c r="W161" s="18"/>
+      <c r="X161" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/秋招复习.xlsx
+++ b/秋招复习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016864C4-DCAE-4B38-A5C4-7115FE56481A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539C9955-4B7F-43C1-91A6-68AC4B0407A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E9FDC2C-8DB9-4205-9D67-D631D07F7D3E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="222">
   <si>
     <t>深入编译链接和运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
   </si>
   <si>
     <t>模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -671,10 +667,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智能指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面向过程就是分析出解决问题所需的步骤，然后用函数把这些步骤一步一步实现；而面向对象是把构成事物的内容分解成一个一个对象，这些对象各自完成各自的工作，共同组成一个事物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1601,12 +1593,211 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>STL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multimap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底层实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间配置器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态数组（dynamic array）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尾部插入和删除很快</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，头部最慢（所有元素都要移动），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只有push_back，没有push_front</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>头部尾部都特别迅速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，中间较慢，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拥有push_back,push_front</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持随机存取，没有重载“[ ]”运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黑树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效的随机存取而不关注插入和删除的效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要随机存取，而且关心两端数据的插入删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量的插入删除操作，不关心随机存取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有键值，只有实值，相当于集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key-value对，相当于字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级空间配置器：SGI STL版本使用malloc来从堆区申请内存，扩容时使用realloc，当申请或扩容失败的时候，会先调用自己实现的malloc_handler函数以特定的方式释放一部分内存，之后分别转调oom_malloc和oom_realloc继续申请，直到成功申请到内存为止，如果没有实现malloc_handler函数，则抛出异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级空间配置器：由内存池和自由链表管理，当申请的空间大于128字节时，转调一级空间配置器，不足128字节时，向上取8的倍数，并在自由链表中找到相应大小的一个区块分配出去，如果自由链表中无相应大小的区块，则从内存池中申请20个该大小的区块，一个返回给用户，另外19个交给自由链表管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个重载了函数调用运算符“（）”的类，被称为函数对象类，使用该类的对象时就像调用函数一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL内置仿函数：分为一元仿函数和二元仿函数，分别继承unary_function和binary_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又分为：算术型仿函数；关系型仿函数；逻辑型仿函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1685,6 +1876,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1694,7 +1893,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1925,13 +2124,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2032,6 +2279,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2493,6 +2791,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>313395</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>66411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82D42CD-91D8-40E7-9F52-24D3FAE129FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181724" y="29317950"/>
+          <a:ext cx="5104471" cy="1704711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2842,10 +3184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CE287A-0C8C-4B0B-9B19-E5732AE1C69A}">
-  <dimension ref="A1:X161"/>
+  <dimension ref="A1:X178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2855,7 +3197,7 @@
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -2881,10 +3223,10 @@
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
       <c r="C3" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
@@ -2911,7 +3253,7 @@
       <c r="B4" s="11"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -2938,7 +3280,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -2965,7 +3307,7 @@
       <c r="B6" s="11"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -2991,10 +3333,10 @@
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -3020,10 +3362,10 @@
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -3049,10 +3391,10 @@
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
       <c r="C9" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -3079,7 +3421,7 @@
       <c r="B10" s="11"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -3106,7 +3448,7 @@
       <c r="B11" s="11"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -3133,7 +3475,7 @@
       <c r="B12" s="11"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -3159,10 +3501,10 @@
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>70</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -3189,7 +3531,7 @@
       <c r="B14" s="11"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -3342,7 +3684,7 @@
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -3369,7 +3711,7 @@
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
@@ -3397,7 +3739,7 @@
       <c r="B22" s="11"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -3424,7 +3766,7 @@
       <c r="B23" s="11"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -3452,7 +3794,7 @@
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -3478,7 +3820,7 @@
       <c r="B25" s="11"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -3506,7 +3848,7 @@
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
@@ -3531,7 +3873,7 @@
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="C27" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -3558,7 +3900,7 @@
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -3585,7 +3927,7 @@
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="C29" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3612,7 +3954,7 @@
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="C30" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -3639,7 +3981,7 @@
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -3666,7 +4008,7 @@
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="C32" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -3693,7 +4035,7 @@
     <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="C33" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -3721,7 +4063,7 @@
       <c r="B34" s="11"/>
       <c r="C34" s="20"/>
       <c r="D34" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -3748,7 +4090,7 @@
       <c r="B35" s="11"/>
       <c r="C35" s="31"/>
       <c r="D35" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -3774,7 +4116,7 @@
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
       <c r="C36" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -3802,10 +4144,10 @@
       <c r="B37" s="11"/>
       <c r="C37" s="20"/>
       <c r="D37" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -3831,10 +4173,10 @@
       <c r="B38" s="11"/>
       <c r="C38" s="20"/>
       <c r="D38" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -3860,10 +4202,10 @@
       <c r="B39" s="11"/>
       <c r="C39" s="20"/>
       <c r="D39" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -3889,10 +4231,10 @@
       <c r="B40" s="11"/>
       <c r="C40" s="31"/>
       <c r="D40" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
@@ -3994,7 +4336,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
@@ -4022,7 +4364,7 @@
       <c r="B45" s="11"/>
       <c r="C45" s="23"/>
       <c r="D45" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -4038,7 +4380,7 @@
       <c r="P45" s="24"/>
       <c r="Q45" s="24"/>
       <c r="R45" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S45" s="24"/>
       <c r="T45" s="24"/>
@@ -4051,7 +4393,7 @@
       <c r="B46" s="11"/>
       <c r="C46" s="20"/>
       <c r="D46" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -4067,7 +4409,7 @@
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
       <c r="R46" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S46" s="12"/>
       <c r="T46" s="12"/>
@@ -4080,7 +4422,7 @@
       <c r="B47" s="11"/>
       <c r="C47" s="20"/>
       <c r="D47" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -4107,7 +4449,7 @@
       <c r="B48" s="11"/>
       <c r="C48" s="20"/>
       <c r="D48" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -4134,7 +4476,7 @@
       <c r="B49" s="11"/>
       <c r="C49" s="31"/>
       <c r="D49" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -4160,7 +4502,7 @@
     <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B50" s="11"/>
       <c r="C50" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
@@ -4188,7 +4530,7 @@
       <c r="B51" s="11"/>
       <c r="C51" s="20"/>
       <c r="D51" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -4215,7 +4557,7 @@
       <c r="B52" s="11"/>
       <c r="C52" s="20"/>
       <c r="D52" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -4242,7 +4584,7 @@
       <c r="B53" s="11"/>
       <c r="C53" s="31"/>
       <c r="D53" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E53" s="30"/>
       <c r="F53" s="30"/>
@@ -4268,7 +4610,7 @@
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54" s="11"/>
       <c r="C54" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
@@ -4296,7 +4638,7 @@
       <c r="B55" s="11"/>
       <c r="C55" s="20"/>
       <c r="D55" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -4323,7 +4665,7 @@
       <c r="B56" s="11"/>
       <c r="C56" s="20"/>
       <c r="D56" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -4350,7 +4692,7 @@
       <c r="B57" s="11"/>
       <c r="C57" s="20"/>
       <c r="D57" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -4377,7 +4719,7 @@
       <c r="B58" s="11"/>
       <c r="C58" s="31"/>
       <c r="D58" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
@@ -4403,7 +4745,7 @@
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="11"/>
       <c r="C59" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
@@ -4431,7 +4773,7 @@
       <c r="B60" s="11"/>
       <c r="C60" s="20"/>
       <c r="D60" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -4458,7 +4800,7 @@
       <c r="B61" s="11"/>
       <c r="C61" s="20"/>
       <c r="D61" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -4485,7 +4827,7 @@
       <c r="B62" s="11"/>
       <c r="C62" s="20"/>
       <c r="D62" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -4512,7 +4854,7 @@
       <c r="B63" s="11"/>
       <c r="C63" s="20"/>
       <c r="D63" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
@@ -4539,7 +4881,7 @@
       <c r="B64" s="11"/>
       <c r="C64" s="20"/>
       <c r="D64" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -4566,7 +4908,7 @@
       <c r="B65" s="11"/>
       <c r="C65" s="20"/>
       <c r="D65" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -4593,7 +4935,7 @@
       <c r="B66" s="11"/>
       <c r="C66" s="31"/>
       <c r="D66" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E66" s="30"/>
       <c r="F66" s="30"/>
@@ -4619,7 +4961,7 @@
     <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B67" s="11"/>
       <c r="C67" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
@@ -4647,7 +4989,7 @@
       <c r="B68" s="11"/>
       <c r="C68" s="20"/>
       <c r="D68" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -4674,7 +5016,7 @@
       <c r="B69" s="11"/>
       <c r="C69" s="20"/>
       <c r="D69" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -4701,7 +5043,7 @@
       <c r="B70" s="11"/>
       <c r="C70" s="31"/>
       <c r="D70" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E70" s="30"/>
       <c r="F70" s="30"/>
@@ -4727,7 +5069,7 @@
     <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71" s="11"/>
       <c r="C71" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
@@ -4755,7 +5097,7 @@
       <c r="B72" s="11"/>
       <c r="C72" s="20"/>
       <c r="D72" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -4782,7 +5124,7 @@
       <c r="B73" s="11"/>
       <c r="C73" s="31"/>
       <c r="D73" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
@@ -4808,7 +5150,7 @@
     <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
       <c r="C74" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -4836,7 +5178,7 @@
       <c r="B75" s="11"/>
       <c r="C75" s="20"/>
       <c r="D75" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -4964,16 +5306,16 @@
     <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B80" s="11"/>
       <c r="C80" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
@@ -4995,7 +5337,7 @@
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" s="11"/>
       <c r="C81" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
@@ -5023,14 +5365,14 @@
       <c r="B82" s="11"/>
       <c r="C82" s="20"/>
       <c r="D82" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
@@ -5055,7 +5397,7 @@
       <c r="C83" s="20"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
@@ -5081,10 +5423,10 @@
       <c r="B84" s="11"/>
       <c r="C84" s="20"/>
       <c r="D84" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
@@ -5111,7 +5453,7 @@
       <c r="C85" s="20"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
@@ -5138,7 +5480,7 @@
       <c r="C86" s="20"/>
       <c r="D86" s="12"/>
       <c r="E86" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
@@ -5165,7 +5507,7 @@
       <c r="C87" s="20"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
@@ -5192,7 +5534,7 @@
       <c r="C88" s="20"/>
       <c r="D88" s="12"/>
       <c r="E88" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
@@ -5219,7 +5561,7 @@
       <c r="C89" s="20"/>
       <c r="D89" s="12"/>
       <c r="E89" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
@@ -5245,7 +5587,7 @@
       <c r="B90" s="11"/>
       <c r="C90" s="20"/>
       <c r="D90" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -5273,7 +5615,7 @@
       <c r="C91" s="20"/>
       <c r="D91" s="12"/>
       <c r="E91" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
@@ -5300,7 +5642,7 @@
       <c r="C92" s="20"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
@@ -5327,7 +5669,7 @@
       <c r="C93" s="20"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
@@ -5354,7 +5696,7 @@
       <c r="C94" s="20"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
@@ -5381,7 +5723,7 @@
       <c r="C95" s="20"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
@@ -5408,7 +5750,7 @@
       <c r="C96" s="20"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
@@ -5642,7 +5984,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
       <c r="L105" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M105" s="12"/>
       <c r="N105" s="12"/>
@@ -5987,7 +6329,7 @@
       <c r="C119" s="20"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
@@ -6013,7 +6355,7 @@
       <c r="B120" s="11"/>
       <c r="C120" s="20"/>
       <c r="D120" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
@@ -6041,7 +6383,7 @@
       <c r="C121" s="20"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
@@ -6067,7 +6409,7 @@
       <c r="B122" s="11"/>
       <c r="C122" s="20"/>
       <c r="D122" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
@@ -6095,7 +6437,7 @@
       <c r="C123" s="20"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
@@ -6122,7 +6464,7 @@
       <c r="C124" s="20"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
@@ -6148,7 +6490,7 @@
       <c r="B125" s="11"/>
       <c r="C125" s="20"/>
       <c r="D125" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
@@ -6174,7 +6516,7 @@
     <row r="126" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B126" s="11"/>
       <c r="C126" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D126" s="24"/>
       <c r="E126" s="24"/>
@@ -6202,7 +6544,7 @@
       <c r="B127" s="11"/>
       <c r="C127" s="20"/>
       <c r="D127" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
@@ -6229,7 +6571,7 @@
       <c r="B128" s="11"/>
       <c r="C128" s="20"/>
       <c r="D128" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
@@ -6256,7 +6598,7 @@
       <c r="B129" s="11"/>
       <c r="C129" s="20"/>
       <c r="D129" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -6283,7 +6625,7 @@
       <c r="B130" s="11"/>
       <c r="C130" s="31"/>
       <c r="D130" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E130" s="30"/>
       <c r="F130" s="30"/>
@@ -6309,7 +6651,7 @@
     <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B131" s="11"/>
       <c r="C131" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
@@ -6336,7 +6678,7 @@
     <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B132" s="11"/>
       <c r="C132" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D132" s="24"/>
       <c r="E132" s="24"/>
@@ -6364,7 +6706,7 @@
       <c r="B133" s="11"/>
       <c r="C133" s="20"/>
       <c r="D133" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
@@ -6391,7 +6733,7 @@
       <c r="B134" s="11"/>
       <c r="C134" s="20"/>
       <c r="D134" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -6418,7 +6760,7 @@
       <c r="B135" s="11"/>
       <c r="C135" s="20"/>
       <c r="D135" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
@@ -6445,7 +6787,7 @@
       <c r="B136" s="11"/>
       <c r="C136" s="20"/>
       <c r="D136" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
@@ -6470,12 +6812,12 @@
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="20"/>
       <c r="D137" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -6502,7 +6844,7 @@
       <c r="B138" s="11"/>
       <c r="C138" s="20"/>
       <c r="D138" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
@@ -6529,7 +6871,7 @@
       <c r="B139" s="11"/>
       <c r="C139" s="20"/>
       <c r="D139" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
@@ -6556,7 +6898,7 @@
       <c r="B140" s="11"/>
       <c r="C140" s="20"/>
       <c r="D140" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
@@ -6583,7 +6925,7 @@
       <c r="B141" s="11"/>
       <c r="C141" s="20"/>
       <c r="D141" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
@@ -6610,7 +6952,7 @@
       <c r="B142" s="11"/>
       <c r="C142" s="20"/>
       <c r="D142" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
@@ -6761,7 +7103,7 @@
     <row r="148" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B148" s="11"/>
       <c r="C148" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D148" s="24"/>
       <c r="E148" s="24"/>
@@ -6789,7 +7131,7 @@
       <c r="B149" s="11"/>
       <c r="C149" s="20"/>
       <c r="D149" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
@@ -6816,7 +7158,7 @@
       <c r="B150" s="11"/>
       <c r="C150" s="31"/>
       <c r="D150" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E150" s="30"/>
       <c r="F150" s="30"/>
@@ -6867,7 +7209,7 @@
     <row r="152" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B152" s="11"/>
       <c r="C152" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
@@ -6895,7 +7237,7 @@
       <c r="B153" s="11"/>
       <c r="C153" s="20"/>
       <c r="D153" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
@@ -6994,40 +7336,54 @@
       <c r="X156" s="13"/>
     </row>
     <row r="157" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B157" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" s="20"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="12"/>
-      <c r="M157" s="12"/>
-      <c r="N157" s="12"/>
-      <c r="O157" s="12"/>
-      <c r="P157" s="12"/>
-      <c r="Q157" s="12"/>
-      <c r="R157" s="12"/>
-      <c r="S157" s="12"/>
-      <c r="T157" s="12"/>
-      <c r="U157" s="12"/>
-      <c r="V157" s="12"/>
-      <c r="W157" s="12"/>
-      <c r="X157" s="13"/>
+      <c r="B157" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D157" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F157" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="G157" s="38"/>
+      <c r="H157" s="24"/>
+      <c r="I157" s="24"/>
+      <c r="J157" s="24"/>
+      <c r="K157" s="24"/>
+      <c r="L157" s="24"/>
+      <c r="M157" s="24"/>
+      <c r="N157" s="24"/>
+      <c r="O157" s="24"/>
+      <c r="P157" s="24"/>
+      <c r="Q157" s="24"/>
+      <c r="R157" s="24"/>
+      <c r="S157" s="24"/>
+      <c r="T157" s="24"/>
+      <c r="U157" s="24"/>
+      <c r="V157" s="24"/>
+      <c r="W157" s="24"/>
+      <c r="X157" s="25"/>
     </row>
     <row r="158" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B158" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C158" s="20"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="D158" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E158" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F158" s="46" t="s">
+        <v>205</v>
+      </c>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
@@ -7048,13 +7404,19 @@
       <c r="X158" s="13"/>
     </row>
     <row r="159" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B159" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C159" s="20"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D159" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F159" s="47" t="s">
+        <v>206</v>
+      </c>
       <c r="G159" s="12"/>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
@@ -7075,13 +7437,19 @@
       <c r="X159" s="13"/>
     </row>
     <row r="160" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B160" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="20"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D160" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E160" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="F160" s="48" t="s">
+        <v>209</v>
+      </c>
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
@@ -7101,30 +7469,495 @@
       <c r="W160" s="12"/>
       <c r="X160" s="13"/>
     </row>
-    <row r="161" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="17"/>
-      <c r="C161" s="21"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="18"/>
-      <c r="L161" s="18"/>
-      <c r="M161" s="18"/>
-      <c r="N161" s="18"/>
-      <c r="O161" s="18"/>
-      <c r="P161" s="18"/>
-      <c r="Q161" s="18"/>
-      <c r="R161" s="18"/>
-      <c r="S161" s="18"/>
-      <c r="T161" s="18"/>
-      <c r="U161" s="18"/>
-      <c r="V161" s="18"/>
-      <c r="W161" s="18"/>
-      <c r="X161" s="19"/>
+    <row r="161" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B161" s="11"/>
+      <c r="C161" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D161" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="E161" s="12"/>
+      <c r="F161" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="12"/>
+      <c r="O161" s="12"/>
+      <c r="P161" s="12"/>
+      <c r="Q161" s="12"/>
+      <c r="R161" s="12"/>
+      <c r="S161" s="12"/>
+      <c r="T161" s="12"/>
+      <c r="U161" s="12"/>
+      <c r="V161" s="12"/>
+      <c r="W161" s="12"/>
+      <c r="X161" s="13"/>
+    </row>
+    <row r="162" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B162" s="11"/>
+      <c r="C162" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D162" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="E162" s="12"/>
+      <c r="F162" s="43"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+      <c r="O162" s="12"/>
+      <c r="P162" s="12"/>
+      <c r="Q162" s="12"/>
+      <c r="R162" s="12"/>
+      <c r="S162" s="12"/>
+      <c r="T162" s="12"/>
+      <c r="U162" s="12"/>
+      <c r="V162" s="12"/>
+      <c r="W162" s="12"/>
+      <c r="X162" s="13"/>
+    </row>
+    <row r="163" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B163" s="11"/>
+      <c r="C163" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="D163" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="E163" s="12"/>
+      <c r="F163" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="12"/>
+      <c r="O163" s="12"/>
+      <c r="P163" s="12"/>
+      <c r="Q163" s="12"/>
+      <c r="R163" s="12"/>
+      <c r="S163" s="12"/>
+      <c r="T163" s="12"/>
+      <c r="U163" s="12"/>
+      <c r="V163" s="12"/>
+      <c r="W163" s="12"/>
+      <c r="X163" s="13"/>
+    </row>
+    <row r="164" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B164" s="11"/>
+      <c r="C164" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D164" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="E164" s="30"/>
+      <c r="F164" s="44"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="12"/>
+      <c r="P164" s="12"/>
+      <c r="Q164" s="12"/>
+      <c r="R164" s="12"/>
+      <c r="S164" s="12"/>
+      <c r="T164" s="12"/>
+      <c r="U164" s="12"/>
+      <c r="V164" s="12"/>
+      <c r="W164" s="12"/>
+      <c r="X164" s="13"/>
+    </row>
+    <row r="165" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B165" s="11"/>
+      <c r="C165" s="36"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="12"/>
+      <c r="P165" s="12"/>
+      <c r="Q165" s="12"/>
+      <c r="R165" s="12"/>
+      <c r="S165" s="12"/>
+      <c r="T165" s="12"/>
+      <c r="U165" s="12"/>
+      <c r="V165" s="12"/>
+      <c r="W165" s="12"/>
+      <c r="X165" s="13"/>
+    </row>
+    <row r="166" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B166" s="11"/>
+      <c r="C166" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D166" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="24"/>
+      <c r="I166" s="24"/>
+      <c r="J166" s="24"/>
+      <c r="K166" s="24"/>
+      <c r="L166" s="24"/>
+      <c r="M166" s="24"/>
+      <c r="N166" s="24"/>
+      <c r="O166" s="24"/>
+      <c r="P166" s="24"/>
+      <c r="Q166" s="24"/>
+      <c r="R166" s="24"/>
+      <c r="S166" s="24"/>
+      <c r="T166" s="24"/>
+      <c r="U166" s="24"/>
+      <c r="V166" s="24"/>
+      <c r="W166" s="24"/>
+      <c r="X166" s="25"/>
+    </row>
+    <row r="167" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B167" s="11"/>
+      <c r="C167" s="36"/>
+      <c r="D167" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+      <c r="O167" s="12"/>
+      <c r="P167" s="12"/>
+      <c r="Q167" s="12"/>
+      <c r="R167" s="12"/>
+      <c r="S167" s="12"/>
+      <c r="T167" s="12"/>
+      <c r="U167" s="12"/>
+      <c r="V167" s="12"/>
+      <c r="W167" s="12"/>
+      <c r="X167" s="13"/>
+    </row>
+    <row r="168" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B168" s="11"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="F168" s="30"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="30"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
+      <c r="K168" s="30"/>
+      <c r="L168" s="30"/>
+      <c r="M168" s="30"/>
+      <c r="N168" s="30"/>
+      <c r="O168" s="30"/>
+      <c r="P168" s="30"/>
+      <c r="Q168" s="30"/>
+      <c r="R168" s="30"/>
+      <c r="S168" s="30"/>
+      <c r="T168" s="30"/>
+      <c r="U168" s="30"/>
+      <c r="V168" s="30"/>
+      <c r="W168" s="30"/>
+      <c r="X168" s="32"/>
+    </row>
+    <row r="169" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B169" s="11"/>
+      <c r="C169" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="12"/>
+      <c r="P169" s="12"/>
+      <c r="Q169" s="12"/>
+      <c r="R169" s="12"/>
+      <c r="S169" s="12"/>
+      <c r="T169" s="12"/>
+      <c r="U169" s="12"/>
+      <c r="V169" s="12"/>
+      <c r="W169" s="12"/>
+      <c r="X169" s="13"/>
+    </row>
+    <row r="170" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B170" s="11"/>
+      <c r="C170" s="36"/>
+      <c r="D170" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="12"/>
+      <c r="P170" s="12"/>
+      <c r="Q170" s="12"/>
+      <c r="R170" s="12"/>
+      <c r="S170" s="12"/>
+      <c r="T170" s="12"/>
+      <c r="U170" s="12"/>
+      <c r="V170" s="12"/>
+      <c r="W170" s="12"/>
+      <c r="X170" s="13"/>
+    </row>
+    <row r="171" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B171" s="39"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E171" s="30"/>
+      <c r="F171" s="30"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
+      <c r="K171" s="30"/>
+      <c r="L171" s="30"/>
+      <c r="M171" s="30"/>
+      <c r="N171" s="30"/>
+      <c r="O171" s="30"/>
+      <c r="P171" s="30"/>
+      <c r="Q171" s="30"/>
+      <c r="R171" s="30"/>
+      <c r="S171" s="30"/>
+      <c r="T171" s="30"/>
+      <c r="U171" s="30"/>
+      <c r="V171" s="30"/>
+      <c r="W171" s="30"/>
+      <c r="X171" s="32"/>
+    </row>
+    <row r="172" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B172" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C172" s="36"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="12"/>
+      <c r="P172" s="12"/>
+      <c r="Q172" s="12"/>
+      <c r="R172" s="12"/>
+      <c r="S172" s="12"/>
+      <c r="T172" s="12"/>
+      <c r="U172" s="12"/>
+      <c r="V172" s="12"/>
+      <c r="W172" s="12"/>
+      <c r="X172" s="13"/>
+    </row>
+    <row r="173" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B173" s="11"/>
+      <c r="C173" s="36"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="12"/>
+      <c r="N173" s="12"/>
+      <c r="O173" s="12"/>
+      <c r="P173" s="12"/>
+      <c r="Q173" s="12"/>
+      <c r="R173" s="12"/>
+      <c r="S173" s="12"/>
+      <c r="T173" s="12"/>
+      <c r="U173" s="12"/>
+      <c r="V173" s="12"/>
+      <c r="W173" s="12"/>
+      <c r="X173" s="13"/>
+    </row>
+    <row r="174" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B174" s="11"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="12"/>
+      <c r="P174" s="12"/>
+      <c r="Q174" s="12"/>
+      <c r="R174" s="12"/>
+      <c r="S174" s="12"/>
+      <c r="T174" s="12"/>
+      <c r="U174" s="12"/>
+      <c r="V174" s="12"/>
+      <c r="W174" s="12"/>
+      <c r="X174" s="13"/>
+    </row>
+    <row r="175" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B175" s="11"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+      <c r="O175" s="12"/>
+      <c r="P175" s="12"/>
+      <c r="Q175" s="12"/>
+      <c r="R175" s="12"/>
+      <c r="S175" s="12"/>
+      <c r="T175" s="12"/>
+      <c r="U175" s="12"/>
+      <c r="V175" s="12"/>
+      <c r="W175" s="12"/>
+      <c r="X175" s="13"/>
+    </row>
+    <row r="176" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B176" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C176" s="20"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="12"/>
+      <c r="P176" s="12"/>
+      <c r="Q176" s="12"/>
+      <c r="R176" s="12"/>
+      <c r="S176" s="12"/>
+      <c r="T176" s="12"/>
+      <c r="U176" s="12"/>
+      <c r="V176" s="12"/>
+      <c r="W176" s="12"/>
+      <c r="X176" s="13"/>
+    </row>
+    <row r="177" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B177" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="20"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+      <c r="O177" s="12"/>
+      <c r="P177" s="12"/>
+      <c r="Q177" s="12"/>
+      <c r="R177" s="12"/>
+      <c r="S177" s="12"/>
+      <c r="T177" s="12"/>
+      <c r="U177" s="12"/>
+      <c r="V177" s="12"/>
+      <c r="W177" s="12"/>
+      <c r="X177" s="13"/>
+    </row>
+    <row r="178" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="17"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="18"/>
+      <c r="J178" s="18"/>
+      <c r="K178" s="18"/>
+      <c r="L178" s="18"/>
+      <c r="M178" s="18"/>
+      <c r="N178" s="18"/>
+      <c r="O178" s="18"/>
+      <c r="P178" s="18"/>
+      <c r="Q178" s="18"/>
+      <c r="R178" s="18"/>
+      <c r="S178" s="18"/>
+      <c r="T178" s="18"/>
+      <c r="U178" s="18"/>
+      <c r="V178" s="18"/>
+      <c r="W178" s="18"/>
+      <c r="X178" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7146,242 +7979,242 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
         <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
         <v>32</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>33</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
         <v>51</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -7494,10 +8327,10 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/秋招复习.xlsx
+++ b/秋招复习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539C9955-4B7F-43C1-91A6-68AC4B0407A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9624C237-DD72-47E7-B496-06A7D5460F2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E9FDC2C-8DB9-4205-9D67-D631D07F7D3E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="230">
   <si>
     <t>深入编译链接和运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1790,6 +1790,189 @@
   </si>
   <si>
     <t>智能指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shared_ptr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique_ptr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weak_ptr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>与shared_ptr结合使用，可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指向shared_ptr类型的内存，且不增加其引用计数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，做到共享，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有重载operator*和operator-&gt;运算符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，使用时要先调用wp.lock()判断引用计数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智能指针其实是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类模板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它重载了operator*和operator-&gt;运算符，使其具有普通指针的工作方式，巧妙地利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象的生存周期结束后会自动释放其所占用的空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这一性质，来使得程序员不再需要关注动态内存的释放时机，最大的特点和用处是可以自动释放所引用的堆区空间，避免了内存泄漏和多次delete，保证了程序的安全性</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一份内存可以被多个shared_ptr引用，在其内部有一个引用计数，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当use_count=0时，才真正释放那块内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，为安全起见，通常使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make_shared()函数来初始化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者赋值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>独享一块内存，不能使用赋值运算符，改变所引用内存时，可使用如下函数up.reset(up1.release())，release</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>解除所有权，但不释放内存，使用new初始化</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3187,7 +3370,7 @@
   <dimension ref="A1:X178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7782,8 +7965,12 @@
       <c r="B172" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C172" s="36"/>
-      <c r="D172" s="12"/>
+      <c r="C172" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D172" s="37" t="s">
+        <v>228</v>
+      </c>
       <c r="E172" s="12"/>
       <c r="F172" s="12"/>
       <c r="G172" s="12"/>
@@ -7807,8 +7994,12 @@
     </row>
     <row r="173" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B173" s="11"/>
-      <c r="C173" s="36"/>
-      <c r="D173" s="12"/>
+      <c r="C173" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="D173" s="37" t="s">
+        <v>229</v>
+      </c>
       <c r="E173" s="12"/>
       <c r="F173" s="12"/>
       <c r="G173" s="12"/>
@@ -7832,8 +8023,12 @@
     </row>
     <row r="174" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B174" s="11"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="12"/>
+      <c r="C174" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="D174" s="37" t="s">
+        <v>225</v>
+      </c>
       <c r="E174" s="12"/>
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
@@ -7857,8 +8052,12 @@
     </row>
     <row r="175" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B175" s="11"/>
-      <c r="C175" s="20"/>
-      <c r="D175" s="12"/>
+      <c r="C175" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D175" s="37" t="s">
+        <v>227</v>
+      </c>
       <c r="E175" s="12"/>
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>

--- a/秋招复习.xlsx
+++ b/秋招复习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9624C237-DD72-47E7-B496-06A7D5460F2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045F02CC-9596-4EE8-8147-D90528AE1EE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E9FDC2C-8DB9-4205-9D67-D631D07F7D3E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="243">
   <si>
     <t>深入编译链接和运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,10 +623,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c++11新特性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c语言中的const表示的是常变量，被其修饰的变量除了不能作为左值外，与普通变量无差别，可以不初始化但之后也不能给其赋值，不能作为数组的下标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1972,6 +1968,135 @@
         <scheme val="minor"/>
       </rPr>
       <t>解除所有权，但不释放内存，使用new初始化</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nullptr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decltype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列for循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++11新特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是一个可调用的代码单元，可以理解为一个未命名的内联函数，一个lambda具有一个返回类型，一个参数列表，一个函数体，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可定义在函数内部，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lambda可以忽略参数列表和返回类型，但是必须声明捕获列表（一个lambda要使用的其所在的函数体中所定义的局部变量的列表）和函数体</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在nullptr出现之前，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NULL可以表示空指针，也可以表示int数值0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在c++的重载函数中有可能会出现二义性，为了避免这种二义性，定义nullptr表示空指针。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译器根据初始化的值来自动推导数据类型，不用程序员显示指定，这对于复杂的自定义类型非常有效，可以有效减少代码的复杂程度，简化编程难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>自动获取到一个变量的类型，和auto的区别是：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decltype获取的变量的类型是之前编译器已经知晓的，而auto是帮助编译器确定一个变量的类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于python中的for循环，给定一个变量，那么它会自动遍历范围内的每个元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c++11标准定义：无论是初始化对象还是某些时候为对象赋新值，都可以使用花括号括起来的初始值。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意：当用列表初始化内置类型且初始值存在丢失信息风险时，编译器将报错</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3018,6 +3143,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>646933</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>85644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07BC81C-740B-4AC3-84DC-C1378A289514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="32385000"/>
+          <a:ext cx="6133333" cy="647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3367,10 +3536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CE287A-0C8C-4B0B-9B19-E5732AE1C69A}">
-  <dimension ref="A1:X178"/>
+  <dimension ref="A1:X183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N181" sqref="N181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3490,7 +3659,7 @@
       <c r="B6" s="11"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -3548,7 +3717,7 @@
         <v>63</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -3577,7 +3746,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -3604,7 +3773,7 @@
       <c r="B10" s="11"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -3631,7 +3800,7 @@
       <c r="B11" s="11"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -3658,7 +3827,7 @@
       <c r="B12" s="11"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -3867,7 +4036,7 @@
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -3894,7 +4063,7 @@
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
@@ -3922,7 +4091,7 @@
       <c r="B22" s="11"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -3949,7 +4118,7 @@
       <c r="B23" s="11"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -3977,7 +4146,7 @@
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -4003,7 +4172,7 @@
       <c r="B25" s="11"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -4031,7 +4200,7 @@
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
@@ -4056,7 +4225,7 @@
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="C27" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -4083,7 +4252,7 @@
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -4110,7 +4279,7 @@
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="C29" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -4137,7 +4306,7 @@
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="C30" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -4164,7 +4333,7 @@
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
       <c r="C31" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -4191,7 +4360,7 @@
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="C32" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -4218,7 +4387,7 @@
     <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="C33" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -4246,7 +4415,7 @@
       <c r="B34" s="11"/>
       <c r="C34" s="20"/>
       <c r="D34" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -4273,7 +4442,7 @@
       <c r="B35" s="11"/>
       <c r="C35" s="31"/>
       <c r="D35" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -4299,7 +4468,7 @@
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
       <c r="C36" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -4327,10 +4496,10 @@
       <c r="B37" s="11"/>
       <c r="C37" s="20"/>
       <c r="D37" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -4356,10 +4525,10 @@
       <c r="B38" s="11"/>
       <c r="C38" s="20"/>
       <c r="D38" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -4385,10 +4554,10 @@
       <c r="B39" s="11"/>
       <c r="C39" s="20"/>
       <c r="D39" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -4414,10 +4583,10 @@
       <c r="B40" s="11"/>
       <c r="C40" s="31"/>
       <c r="D40" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
@@ -5252,7 +5421,7 @@
     <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71" s="11"/>
       <c r="C71" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
@@ -5280,7 +5449,7 @@
       <c r="B72" s="11"/>
       <c r="C72" s="20"/>
       <c r="D72" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -5307,7 +5476,7 @@
       <c r="B73" s="11"/>
       <c r="C73" s="31"/>
       <c r="D73" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
@@ -5333,7 +5502,7 @@
     <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
       <c r="C74" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -5361,7 +5530,7 @@
       <c r="B75" s="11"/>
       <c r="C75" s="20"/>
       <c r="D75" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -5489,16 +5658,16 @@
     <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B80" s="11"/>
       <c r="C80" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
@@ -5520,7 +5689,7 @@
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" s="11"/>
       <c r="C81" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
@@ -5548,14 +5717,14 @@
       <c r="B82" s="11"/>
       <c r="C82" s="20"/>
       <c r="D82" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
@@ -5580,7 +5749,7 @@
       <c r="C83" s="20"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
@@ -5606,10 +5775,10 @@
       <c r="B84" s="11"/>
       <c r="C84" s="20"/>
       <c r="D84" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
@@ -5636,7 +5805,7 @@
       <c r="C85" s="20"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
@@ -5663,7 +5832,7 @@
       <c r="C86" s="20"/>
       <c r="D86" s="12"/>
       <c r="E86" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
@@ -5690,7 +5859,7 @@
       <c r="C87" s="20"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
@@ -5717,7 +5886,7 @@
       <c r="C88" s="20"/>
       <c r="D88" s="12"/>
       <c r="E88" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
@@ -5744,7 +5913,7 @@
       <c r="C89" s="20"/>
       <c r="D89" s="12"/>
       <c r="E89" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
@@ -5770,7 +5939,7 @@
       <c r="B90" s="11"/>
       <c r="C90" s="20"/>
       <c r="D90" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -5798,7 +5967,7 @@
       <c r="C91" s="20"/>
       <c r="D91" s="12"/>
       <c r="E91" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
@@ -5825,7 +5994,7 @@
       <c r="C92" s="20"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
@@ -5852,7 +6021,7 @@
       <c r="C93" s="20"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
@@ -5879,7 +6048,7 @@
       <c r="C94" s="20"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
@@ -5906,7 +6075,7 @@
       <c r="C95" s="20"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
@@ -5933,7 +6102,7 @@
       <c r="C96" s="20"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
@@ -6167,7 +6336,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
       <c r="L105" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M105" s="12"/>
       <c r="N105" s="12"/>
@@ -6512,7 +6681,7 @@
       <c r="C119" s="20"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
@@ -6538,7 +6707,7 @@
       <c r="B120" s="11"/>
       <c r="C120" s="20"/>
       <c r="D120" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
@@ -6566,7 +6735,7 @@
       <c r="C121" s="20"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
@@ -6592,7 +6761,7 @@
       <c r="B122" s="11"/>
       <c r="C122" s="20"/>
       <c r="D122" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
@@ -6620,7 +6789,7 @@
       <c r="C123" s="20"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
@@ -6647,7 +6816,7 @@
       <c r="C124" s="20"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
@@ -6673,7 +6842,7 @@
       <c r="B125" s="11"/>
       <c r="C125" s="20"/>
       <c r="D125" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
@@ -6699,7 +6868,7 @@
     <row r="126" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B126" s="11"/>
       <c r="C126" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D126" s="24"/>
       <c r="E126" s="24"/>
@@ -6727,7 +6896,7 @@
       <c r="B127" s="11"/>
       <c r="C127" s="20"/>
       <c r="D127" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
@@ -6754,7 +6923,7 @@
       <c r="B128" s="11"/>
       <c r="C128" s="20"/>
       <c r="D128" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
@@ -6781,7 +6950,7 @@
       <c r="B129" s="11"/>
       <c r="C129" s="20"/>
       <c r="D129" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -6808,7 +6977,7 @@
       <c r="B130" s="11"/>
       <c r="C130" s="31"/>
       <c r="D130" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E130" s="30"/>
       <c r="F130" s="30"/>
@@ -6834,7 +7003,7 @@
     <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B131" s="11"/>
       <c r="C131" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
@@ -6861,7 +7030,7 @@
     <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B132" s="11"/>
       <c r="C132" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D132" s="24"/>
       <c r="E132" s="24"/>
@@ -6889,7 +7058,7 @@
       <c r="B133" s="11"/>
       <c r="C133" s="20"/>
       <c r="D133" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
@@ -6916,7 +7085,7 @@
       <c r="B134" s="11"/>
       <c r="C134" s="20"/>
       <c r="D134" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -6943,7 +7112,7 @@
       <c r="B135" s="11"/>
       <c r="C135" s="20"/>
       <c r="D135" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
@@ -6970,7 +7139,7 @@
       <c r="B136" s="11"/>
       <c r="C136" s="20"/>
       <c r="D136" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
@@ -6995,12 +7164,12 @@
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="20"/>
       <c r="D137" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -7027,7 +7196,7 @@
       <c r="B138" s="11"/>
       <c r="C138" s="20"/>
       <c r="D138" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
@@ -7054,7 +7223,7 @@
       <c r="B139" s="11"/>
       <c r="C139" s="20"/>
       <c r="D139" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
@@ -7081,7 +7250,7 @@
       <c r="B140" s="11"/>
       <c r="C140" s="20"/>
       <c r="D140" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
@@ -7108,7 +7277,7 @@
       <c r="B141" s="11"/>
       <c r="C141" s="20"/>
       <c r="D141" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
@@ -7135,7 +7304,7 @@
       <c r="B142" s="11"/>
       <c r="C142" s="20"/>
       <c r="D142" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
@@ -7286,7 +7455,7 @@
     <row r="148" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B148" s="11"/>
       <c r="C148" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D148" s="24"/>
       <c r="E148" s="24"/>
@@ -7314,7 +7483,7 @@
       <c r="B149" s="11"/>
       <c r="C149" s="20"/>
       <c r="D149" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
@@ -7341,7 +7510,7 @@
       <c r="B150" s="11"/>
       <c r="C150" s="31"/>
       <c r="D150" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E150" s="30"/>
       <c r="F150" s="30"/>
@@ -7392,7 +7561,7 @@
     <row r="152" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B152" s="11"/>
       <c r="C152" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
@@ -7420,7 +7589,7 @@
       <c r="B153" s="11"/>
       <c r="C153" s="20"/>
       <c r="D153" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
@@ -7520,19 +7689,19 @@
     </row>
     <row r="157" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B157" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C157" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C157" s="23" t="s">
-        <v>192</v>
-      </c>
       <c r="D157" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="E157" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E157" s="24" t="s">
+      <c r="F157" s="45" t="s">
         <v>200</v>
-      </c>
-      <c r="F157" s="45" t="s">
-        <v>201</v>
       </c>
       <c r="G157" s="38"/>
       <c r="H157" s="24"/>
@@ -7556,16 +7725,16 @@
     <row r="158" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B158" s="11"/>
       <c r="C158" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D158" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="E158" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F158" s="46" t="s">
         <v>204</v>
-      </c>
-      <c r="E158" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="F158" s="46" t="s">
-        <v>205</v>
       </c>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
@@ -7589,16 +7758,16 @@
     <row r="159" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B159" s="11"/>
       <c r="C159" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D159" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F159" s="47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G159" s="12"/>
       <c r="H159" s="12"/>
@@ -7622,16 +7791,16 @@
     <row r="160" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B160" s="11"/>
       <c r="C160" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D160" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E160" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="F160" s="48" t="s">
         <v>208</v>
-      </c>
-      <c r="E160" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F160" s="48" t="s">
-        <v>209</v>
       </c>
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
@@ -7655,14 +7824,14 @@
     <row r="161" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B161" s="11"/>
       <c r="C161" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D161" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
@@ -7686,10 +7855,10 @@
     <row r="162" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B162" s="11"/>
       <c r="C162" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D162" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E162" s="12"/>
       <c r="F162" s="43"/>
@@ -7715,14 +7884,14 @@
     <row r="163" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B163" s="11"/>
       <c r="C163" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D163" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E163" s="12"/>
       <c r="F163" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G163" s="12"/>
       <c r="H163" s="12"/>
@@ -7746,10 +7915,10 @@
     <row r="164" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B164" s="11"/>
       <c r="C164" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D164" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E164" s="30"/>
       <c r="F164" s="44"/>
@@ -7800,10 +7969,10 @@
     <row r="166" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B166" s="11"/>
       <c r="C166" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D166" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E166" s="24"/>
       <c r="F166" s="24"/>
@@ -7830,7 +7999,7 @@
       <c r="B167" s="11"/>
       <c r="C167" s="36"/>
       <c r="D167" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
@@ -7858,7 +8027,7 @@
       <c r="C168" s="40"/>
       <c r="D168" s="30"/>
       <c r="E168" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F168" s="30"/>
       <c r="G168" s="30"/>
@@ -7883,7 +8052,7 @@
     <row r="169" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B169" s="11"/>
       <c r="C169" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
@@ -7911,7 +8080,7 @@
       <c r="B170" s="11"/>
       <c r="C170" s="36"/>
       <c r="D170" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
@@ -7938,7 +8107,7 @@
       <c r="B171" s="39"/>
       <c r="C171" s="40"/>
       <c r="D171" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E171" s="30"/>
       <c r="F171" s="30"/>
@@ -7963,13 +8132,13 @@
     </row>
     <row r="172" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B172" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C172" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="C172" s="36" t="s">
-        <v>222</v>
-      </c>
       <c r="D172" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E172" s="12"/>
       <c r="F172" s="12"/>
@@ -7995,10 +8164,10 @@
     <row r="173" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B173" s="11"/>
       <c r="C173" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D173" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E173" s="12"/>
       <c r="F173" s="12"/>
@@ -8024,10 +8193,10 @@
     <row r="174" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B174" s="11"/>
       <c r="C174" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="D174" s="37" t="s">
         <v>224</v>
-      </c>
-      <c r="D174" s="37" t="s">
-        <v>225</v>
       </c>
       <c r="E174" s="12"/>
       <c r="F174" s="12"/>
@@ -8053,10 +8222,10 @@
     <row r="175" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B175" s="11"/>
       <c r="C175" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D175" s="37" t="s">
         <v>226</v>
-      </c>
-      <c r="D175" s="37" t="s">
-        <v>227</v>
       </c>
       <c r="E175" s="12"/>
       <c r="F175" s="12"/>
@@ -8080,38 +8249,44 @@
       <c r="X175" s="13"/>
     </row>
     <row r="176" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B176" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C176" s="20"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="12"/>
-      <c r="H176" s="12"/>
-      <c r="I176" s="12"/>
-      <c r="J176" s="12"/>
-      <c r="K176" s="12"/>
-      <c r="L176" s="12"/>
-      <c r="M176" s="12"/>
-      <c r="N176" s="12"/>
-      <c r="O176" s="12"/>
-      <c r="P176" s="12"/>
-      <c r="Q176" s="12"/>
-      <c r="R176" s="12"/>
-      <c r="S176" s="12"/>
-      <c r="T176" s="12"/>
-      <c r="U176" s="12"/>
-      <c r="V176" s="12"/>
-      <c r="W176" s="12"/>
-      <c r="X176" s="13"/>
+      <c r="B176" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C176" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E176" s="24"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="24"/>
+      <c r="H176" s="24"/>
+      <c r="I176" s="24"/>
+      <c r="J176" s="24"/>
+      <c r="K176" s="24"/>
+      <c r="L176" s="24"/>
+      <c r="M176" s="24"/>
+      <c r="N176" s="24"/>
+      <c r="O176" s="24"/>
+      <c r="P176" s="24"/>
+      <c r="Q176" s="24"/>
+      <c r="R176" s="24"/>
+      <c r="S176" s="24"/>
+      <c r="T176" s="24"/>
+      <c r="U176" s="24"/>
+      <c r="V176" s="24"/>
+      <c r="W176" s="24"/>
+      <c r="X176" s="25"/>
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B177" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" s="20"/>
-      <c r="D177" s="12"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D177" s="37" t="s">
+        <v>236</v>
+      </c>
       <c r="E177" s="12"/>
       <c r="F177" s="12"/>
       <c r="G177" s="12"/>
@@ -8133,30 +8308,175 @@
       <c r="W177" s="12"/>
       <c r="X177" s="13"/>
     </row>
-    <row r="178" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="17"/>
-      <c r="C178" s="21"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
-      <c r="I178" s="18"/>
-      <c r="J178" s="18"/>
-      <c r="K178" s="18"/>
-      <c r="L178" s="18"/>
-      <c r="M178" s="18"/>
-      <c r="N178" s="18"/>
-      <c r="O178" s="18"/>
-      <c r="P178" s="18"/>
-      <c r="Q178" s="18"/>
-      <c r="R178" s="18"/>
-      <c r="S178" s="18"/>
-      <c r="T178" s="18"/>
-      <c r="U178" s="18"/>
-      <c r="V178" s="18"/>
-      <c r="W178" s="18"/>
-      <c r="X178" s="19"/>
+    <row r="178" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B178" s="11"/>
+      <c r="C178" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D178" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
+      <c r="O178" s="12"/>
+      <c r="P178" s="12"/>
+      <c r="Q178" s="12"/>
+      <c r="R178" s="12"/>
+      <c r="S178" s="12"/>
+      <c r="T178" s="12"/>
+      <c r="U178" s="12"/>
+      <c r="V178" s="12"/>
+      <c r="W178" s="12"/>
+      <c r="X178" s="13"/>
+    </row>
+    <row r="179" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B179" s="11"/>
+      <c r="C179" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D179" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="12"/>
+      <c r="N179" s="12"/>
+      <c r="O179" s="12"/>
+      <c r="P179" s="12"/>
+      <c r="Q179" s="12"/>
+      <c r="R179" s="12"/>
+      <c r="S179" s="12"/>
+      <c r="T179" s="12"/>
+      <c r="U179" s="12"/>
+      <c r="V179" s="12"/>
+      <c r="W179" s="12"/>
+      <c r="X179" s="13"/>
+    </row>
+    <row r="180" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B180" s="11"/>
+      <c r="C180" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D180" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="12"/>
+      <c r="N180" s="12"/>
+      <c r="O180" s="12"/>
+      <c r="P180" s="12"/>
+      <c r="Q180" s="12"/>
+      <c r="R180" s="12"/>
+      <c r="S180" s="12"/>
+      <c r="T180" s="12"/>
+      <c r="U180" s="12"/>
+      <c r="V180" s="12"/>
+      <c r="W180" s="12"/>
+      <c r="X180" s="13"/>
+    </row>
+    <row r="181" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B181" s="39"/>
+      <c r="C181" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D181" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="E181" s="30"/>
+      <c r="F181" s="30"/>
+      <c r="G181" s="30"/>
+      <c r="H181" s="30"/>
+      <c r="I181" s="30"/>
+      <c r="J181" s="30"/>
+      <c r="K181" s="30"/>
+      <c r="L181" s="30"/>
+      <c r="M181" s="30"/>
+      <c r="N181" s="30"/>
+      <c r="O181" s="30"/>
+      <c r="P181" s="30"/>
+      <c r="Q181" s="30"/>
+      <c r="R181" s="30"/>
+      <c r="S181" s="30"/>
+      <c r="T181" s="30"/>
+      <c r="U181" s="30"/>
+      <c r="V181" s="30"/>
+      <c r="W181" s="30"/>
+      <c r="X181" s="32"/>
+    </row>
+    <row r="182" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B182" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="12"/>
+      <c r="M182" s="12"/>
+      <c r="N182" s="12"/>
+      <c r="O182" s="12"/>
+      <c r="P182" s="12"/>
+      <c r="Q182" s="12"/>
+      <c r="R182" s="12"/>
+      <c r="S182" s="12"/>
+      <c r="T182" s="12"/>
+      <c r="U182" s="12"/>
+      <c r="V182" s="12"/>
+      <c r="W182" s="12"/>
+      <c r="X182" s="13"/>
+    </row>
+    <row r="183" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="17"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="18"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="18"/>
+      <c r="G183" s="18"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="18"/>
+      <c r="J183" s="18"/>
+      <c r="K183" s="18"/>
+      <c r="L183" s="18"/>
+      <c r="M183" s="18"/>
+      <c r="N183" s="18"/>
+      <c r="O183" s="18"/>
+      <c r="P183" s="18"/>
+      <c r="Q183" s="18"/>
+      <c r="R183" s="18"/>
+      <c r="S183" s="18"/>
+      <c r="T183" s="18"/>
+      <c r="U183" s="18"/>
+      <c r="V183" s="18"/>
+      <c r="W183" s="18"/>
+      <c r="X183" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8413,7 +8733,7 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/秋招复习.xlsx
+++ b/秋招复习.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045F02CC-9596-4EE8-8147-D90528AE1EE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E046AD0-D4C8-489F-89EE-0E22CEA1E493}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5E9FDC2C-8DB9-4205-9D67-D631D07F7D3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="842" activeTab="1" xr2:uid="{5E9FDC2C-8DB9-4205-9D67-D631D07F7D3E}"/>
   </bookViews>
   <sheets>
     <sheet name="c，c++语言" sheetId="1" r:id="rId1"/>
-    <sheet name="操作系统" sheetId="2" r:id="rId2"/>
-    <sheet name="网络" sheetId="3" r:id="rId3"/>
-    <sheet name="数据结构" sheetId="10" r:id="rId4"/>
+    <sheet name="网络" sheetId="3" r:id="rId2"/>
+    <sheet name="数据结构" sheetId="10" r:id="rId3"/>
+    <sheet name="操作系统" sheetId="2" r:id="rId4"/>
     <sheet name="数据库" sheetId="8" r:id="rId5"/>
     <sheet name="开源框架" sheetId="4" r:id="rId6"/>
     <sheet name="项目" sheetId="5" r:id="rId7"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="384">
   <si>
     <t>深入编译链接和运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2098,6 +2098,1559 @@
       </rPr>
       <t>注意：当用列表初始化内置类型且初始值存在丢失信息风险时，编译器将报错</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libevent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsoncpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memcached</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存管理，一致性哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络管理工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iptables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nicstat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mtr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcpping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traceroute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qperf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcpdump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据链路层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实现了网卡接口的网络驱动程序，以处理数据在屋里媒介上的传输，常用协议：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ARP协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（地址解析协议），RARP协议（逆地址解析协议）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现数据包的选路和转发，主要协议：IP协议，ICMP协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输层为两台主机上的应用程序提供端到端的通信，主要协议：TCP协议，UDP协议，SCTP协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层负责处理应用程序的逻辑，主要协议：telnet，ssh，ping程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四层tcp/ip协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip头部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4位版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipv4/ipv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4位头部长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8位服务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位总长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3位标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13位片偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8位生存时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8位协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位头部校验和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位目的端ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位源端ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ip头部有多少个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32bit的字（四字节）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最少延时，最大吞吐量，最小费用，最高可靠性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个ip数据报的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>标识唯一的一个数据报，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同一数据报的不同分片标识相同</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二位DF，第三位MF，第一位保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>该分片相对原始数据报开始处的偏移，实际偏移值要将该数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>左移三位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>除最后一分片外，所有分片的大小都是8的整数倍字节</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTL值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上层协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收端进行CRC校验，来判断数据报是否损坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源iP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muduo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络I/O模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service服务模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL存储模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优于文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便（SQL语句）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务处理机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/S架构非常适合集群部署和分布式部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向连接的，可靠的字节流式服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcp头部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>字节流的概念：应用程序对数据的发送和接收是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有边界限制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的，由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发送缓冲区和接收缓冲区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的大小，以及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应用程序的实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来决定发送和接收的次数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么说tcp协议是可靠的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、排序：tcp协议会对接收到的tcp报文段进行重排，整理有序之后再交给应用层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发送应答机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：发送端发送的每个tcp报文段都必须得到接收方的应答，才认为这个tcp报文段传输成功</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>超时重传机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：发送端在发出一个报文段之后开启一个计时器，若在指定时间内未收到该报文段的应答报文，则重新发送该报文段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位源端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位目的端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位确认号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4位头部长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6位保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6位标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位窗口大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位校验和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位紧急指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第一个报文段的序号被初始化为一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>随机值ISN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，之后的每个报文段的序号为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ISN加上到该报文段第一个字节的偏移量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用做对接收到的报文段的响应，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>确认号的值是接收到的序号值加1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部所占的32bit字长，4位最多标识60字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URG：紧急指针是否有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSH：提示接收端应立即从接收缓冲区读走数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RST：表示要重新建立tcp连接，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复位报文段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SYN：表示请求建立一个连接，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同步报文段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FIN：表示本端要关闭连接了，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结束报文段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ACK：确认号是否有效，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>确认报文段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和序号字段的值相加表示最后一个紧急数据的下一字节序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>接收通告窗口的大小，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tcp流量控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的手段之一</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送端填充，接收端进行CRC校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tcp连接的建立和关闭（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>三次握手，四次挥手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立过程（三次握手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、第一次握手：客户端给服务器发送一个SYN标志位为1的头部字段，表示请求建立连接，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该报文段还包含一个32位的序号值seq1（TCP头部中的序号字段）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虽然该报文段没有数据，但也会有一个序号值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。发送该报文段之后，客户端进入到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SYN_SNET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、第二次握手：服务器接收到客户端发送过来的同步报文段，给客户端回应一个带有SYN标志位的同步报文段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>该报文段也会有一个自己的序号seq2，同时还</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对第一个报文段进行确认ack1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>该确认号</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ack1的值为（seq1+1）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，表示服务器同意与该客户端进行连接，服务器进入到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SYN_RCVD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、第三次握手：客户端接收到服务器发送过来的同意连接的同步报文段，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ACK位为1的确认报文段，这里</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ack2 = seq2+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，服务器收到该确认报文段后，也进入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESTABLISHED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态.成功建立连接！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客户端此时认为已经建立好连接，进入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESTABLISHED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态，给服务器发送一个</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么tcp是三次握手不是两次或者四次？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第一种解释角度：假设只需要两次握手，这时的情况：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务器接收到客户端的连接请求后（第一次握手），立马进入ESTABLISHED状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，认为连接已经建立，只给客户端发送一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不占用序号的确认报文段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（第二次握手），客户端收到后也不用再发送一个报文段，直接进入ESTABLISHED状态。在这种情况下，如果我们</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一次握手发送的确认报文段在网络中经过了很多个中转路由，超过了客户端超时重传的时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，客户端再次发送一个请求连接的同步报文段给服务器，而第二次发送的同步报文段很快到达服务器并成功建立连接，这时第一次发送的同步报文段还在网络中路由（但此时连接已经成功建立），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当我们完成交互，断开连接后，第一次发送的报文段到达服务器，服务器又会给客户端发送一个确认报文段，自己进入ESTABLISHED状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而其实此时我们的客户端已经关闭，但服务器并不知情，还是会维护一个与该客户端的连接，这将会极大的耗费服务器的资源！！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第二种解释角度：第一次握手时，客户端发送给服务器的同步报文段占用一个序号seq1，第二次握手时服务器同意连接，发送给客户端一个同步报文段，会占用一个服务器的序号seq2，并且还有对第一次握手时客户端发送的同步报文段中的序号的确认号ack1.第三次握手时，客户端只需要对第二次握手时服务器发送的同步报文段中的序号进行确认即可，发送一个ack2的确认号。上面我们已经说过，只有携带序号的报文段才会被确认和超时重传，前面两次握手发送的报文段都占用了序号，因此，如果只有两次握手，那么服务器就不会收到第二次握手时同步报文段序号的确认，它就会认为客户端没有收到第二次握手时的同步报文段，会一直进行超时重传，就无法完成连接。而客户端发给服务器的确认报文段没有数据，所以不占用序号，没有序号服务器也就不会对该报文段进行确认，也就不会再进行第四次握手了
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术支撑：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、序号值是由内核给报文段分配的，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分配了序号的报文段我们称之为占用了一个序号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2、一般情况下，只有携带数据的报文段才会占用序号，但是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>带有SYN标志的同步报文段是一个例外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它不携带数据但也会占用一个序号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只有携带序号的报文段才会有确认号，才会超时重传</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、确认报文段如果携带数据则占用序号，如果不携带则不占用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、确认号的值是其确认的报文段的序号的值加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭过程（四次挥手）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>结束报文段和同步报文段相同</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，都要占用一个序号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、第一次挥手：客户端给服务器发送FIN位为1的结束报文段，进入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fin_wait_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、第二次挥手：服务器发送给客户端一个确认报文段，用来告诉客户端自己收到了结束报文段，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>此时服务器进入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>close_wait</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态，客户端在接收到该确认报文段之后，进入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fin_wait_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（第二次等待关闭）状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、第三次挥手：服务器给客户端发送了一个带有FIN标志的结束报文段，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>发送之后服务器进入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>last_ack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态，等待客户端向其发送确认报文段</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、第四次挥手：客户端收到服务器发来的结束报文段后，向服务器返回了一个确认报文段，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客户端进入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time_wait</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态，客户端接收到该确认报文段之后进入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态，服务器方已经断开连接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四次挥手可以是三次挥手吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每隔200ms会来检查是否需要发送ACK包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>但这个200ms</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并非收到数据后需要延迟的时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。系统有一个固定的定时器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当服务器开启了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>延迟确认机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的时候，四次挥手成为三次挥手，这种情况是：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收方在收到数据后，并不会立即回复ACK,而是延迟一定时间。一般ACK延迟发送的时间为200ms，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>作用：减少网络中琐碎的TCP报文段数量，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当有数据发送的时候，将ACK捎带过去</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_wait状态存在的意义？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当服务器closed之后，可能还会有携带数据的报文段在网络中，此时如果没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保残留在网络中的报文段被接收并丢弃，或者在网络中死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>time_wait状态，而且</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户端和服务器又进行了新的一次连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而之前第一次链</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>接时的报文段此时到达客户端，就会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>形成垃圾数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，2MSL存在的意义就是为了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议</t>
+  </si>
+  <si>
+    <t>snmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>udp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许老的重复分节在网络中的消逝（为什么需要2MSL）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2105,7 +3658,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2192,6 +3745,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2201,7 +3780,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2480,13 +4059,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2638,6 +4274,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3194,6 +4863,363 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>237152</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A291FC4C-22F2-4CB5-84E1-5963E1C2DE9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="0"/>
+          <a:ext cx="7780952" cy="828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>256457</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>104287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A147812A-97BA-4962-A7A3-778453B6B849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="14297025"/>
+          <a:ext cx="5742857" cy="3904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304162</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>132904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CCAFF6-EE8D-4A43-BD2E-709E71BCBE3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="22631400"/>
+          <a:ext cx="4799962" cy="3571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>256200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F4AD54-CBC0-428C-9269-020E8EED2B6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="4895850"/>
+          <a:ext cx="7800000" cy="552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2693639-06CB-4DE7-B1D6-F7AFE5319BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="5438775"/>
+          <a:ext cx="5715000" cy="3562177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F5CFFC-E466-4AE5-A455-81F52C36D0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="1095375"/>
+          <a:ext cx="7200000" cy="2923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>437238</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>132949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D59D53C-9056-44D7-8D34-FA9910BD5507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="9782175"/>
+          <a:ext cx="7295238" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504161</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2EAD903-0AD2-4725-A3B0-2285D05B885C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704974" y="18649950"/>
+          <a:ext cx="4971387" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -3538,7 +5564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CE287A-0C8C-4B0B-9B19-E5732AE1C69A}">
   <dimension ref="A1:X183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N181" sqref="N181"/>
     </sheetView>
   </sheetViews>
@@ -8487,269 +10513,3496 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F108AD-10B5-4803-9828-06701D2E1990}">
-  <dimension ref="B3:I63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E6EE9-DEC8-4209-B59F-63407999F375}">
+  <dimension ref="B1:T173"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>146</v>
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="11"/>
+      <c r="C3" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="13"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="13"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="39"/>
+      <c r="C5" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="32"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="13"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="13"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="13"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="13"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="13"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="13"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="11"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="13"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="13"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="13"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="11"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="13"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="13"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="13"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="13"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="13"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="13"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="11"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="13"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="11"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="13"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="11"/>
+      <c r="C24" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="K24" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="L24" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="M24" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="N24" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="13"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="11"/>
+      <c r="C25" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="N25" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="13"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="25"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" s="11"/>
+      <c r="C27" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="13"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="11"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="13"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="11"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="13"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="11"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="13"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="11"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="13"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="11"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="13"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="11"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="13"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="11"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="13"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="11"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="13"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="11"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="13"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="11"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="13"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="11"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="13"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="11"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="13"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="11"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="13"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="11"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="13"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B42" s="11"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="13"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B43" s="11"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="13"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B44" s="11"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="13"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B45" s="11"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="13"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B46" s="11"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="13"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B47" s="11"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="13"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B48" s="11"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="13"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B49" s="11"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="13"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B50" s="11"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="13"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B51" s="11"/>
+      <c r="C51" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="25"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B52" s="11"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="13"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B53" s="11"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="32"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B54" s="11"/>
+      <c r="C54" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="13"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B55" s="11"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="13"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B56" s="11"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="13"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B57" s="11"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="13"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B58" s="11"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="13"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B59" s="11"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="13"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B60" s="11"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="13"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B61" s="11"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="13"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B62" s="11"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="13"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B63" s="11"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="13"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B64" s="11"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="13"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B65" s="11"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="13"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B66" s="11"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="13"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B67" s="11"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="13"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B68" s="11"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="13"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B69" s="11"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="13"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B70" s="11"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="13"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B71" s="11"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="13"/>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B72" s="11"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="13"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B73" s="11"/>
+      <c r="C73" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="F73" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="G73" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="H73" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="I73" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="J73" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="K73" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="L73" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="13"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B74" s="11"/>
+      <c r="C74" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="D74" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="E74" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="F74" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="G74" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="H74" s="61"/>
+      <c r="I74" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="J74" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="K74" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="L74" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="13"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B75" s="11"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="13"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B76" s="11"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="13"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B77" s="11"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="13"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B78" s="11"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="13"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B79" s="11"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="13"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B80" s="11"/>
+      <c r="C80" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="13"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B81" s="11"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="13"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B82" s="11"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="13"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B83" s="11"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="13"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B84" s="11"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="13"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B85" s="11"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="13"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B86" s="11"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="13"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B87" s="11"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="13"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B88" s="11"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="13"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B89" s="11"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="13"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B90" s="11"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="13"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B91" s="11"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="13"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B92" s="11"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="13"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B93" s="11"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="13"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B94" s="11"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="13"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B95" s="11"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="13"/>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B96" s="11"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="13"/>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B97" s="11"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="13"/>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B98" s="11"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="13"/>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B99" s="11"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="13"/>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B100" s="11"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="13"/>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B101" s="11"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="13"/>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B102" s="11"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="13"/>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B103" s="11"/>
+      <c r="C103" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="13"/>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B104" s="11"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="24"/>
+      <c r="O104" s="24"/>
+      <c r="P104" s="24"/>
+      <c r="Q104" s="24"/>
+      <c r="R104" s="24"/>
+      <c r="S104" s="24"/>
+      <c r="T104" s="25"/>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B105" s="11"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="13"/>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B106" s="11"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="13"/>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B107" s="11"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="24"/>
+      <c r="O107" s="24"/>
+      <c r="P107" s="24"/>
+      <c r="Q107" s="24"/>
+      <c r="R107" s="24"/>
+      <c r="S107" s="24"/>
+      <c r="T107" s="25"/>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B108" s="11"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="13"/>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B109" s="11"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="31"/>
+      <c r="L109" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="M109" s="30"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="30"/>
+      <c r="P109" s="30"/>
+      <c r="Q109" s="30"/>
+      <c r="R109" s="30"/>
+      <c r="S109" s="30"/>
+      <c r="T109" s="32"/>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B110" s="11"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="13"/>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B111" s="11"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="13"/>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B112" s="11"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="31"/>
+      <c r="L112" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="M112" s="30"/>
+      <c r="N112" s="30"/>
+      <c r="O112" s="30"/>
+      <c r="P112" s="30"/>
+      <c r="Q112" s="30"/>
+      <c r="R112" s="30"/>
+      <c r="S112" s="30"/>
+      <c r="T112" s="32"/>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B113" s="11"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="13"/>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B114" s="11"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="13"/>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B115" s="11"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="13"/>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B116" s="11"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="13"/>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B117" s="11"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="13"/>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B118" s="11"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="L118" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="13"/>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B119" s="11"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="13"/>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B120" s="11"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="13"/>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B121" s="11"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="13"/>
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B122" s="11"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
+      <c r="S122" s="12"/>
+      <c r="T122" s="13"/>
+    </row>
+    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B123" s="11"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="13"/>
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B124" s="11"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="13"/>
+    </row>
+    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B125" s="11"/>
+      <c r="C125" s="60" t="s">
+        <v>357</v>
+      </c>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
+      <c r="O125" s="12"/>
+      <c r="P125" s="12"/>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
+      <c r="S125" s="12"/>
+      <c r="T125" s="13"/>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B126" s="11"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+      <c r="O126" s="24"/>
+      <c r="P126" s="24"/>
+      <c r="Q126" s="24"/>
+      <c r="R126" s="24"/>
+      <c r="S126" s="51"/>
+      <c r="T126" s="13"/>
+    </row>
+    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B127" s="11"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="20"/>
+      <c r="L127" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="12"/>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="52"/>
+      <c r="T127" s="13"/>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B128" s="11"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="24"/>
+      <c r="O128" s="24"/>
+      <c r="P128" s="24"/>
+      <c r="Q128" s="24"/>
+      <c r="R128" s="24"/>
+      <c r="S128" s="51"/>
+      <c r="T128" s="13"/>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B129" s="11"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="31"/>
+      <c r="L129" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="M129" s="30"/>
+      <c r="N129" s="30"/>
+      <c r="O129" s="30"/>
+      <c r="P129" s="30"/>
+      <c r="Q129" s="30"/>
+      <c r="R129" s="30"/>
+      <c r="S129" s="54"/>
+      <c r="T129" s="13"/>
+    </row>
+    <row r="130" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B130" s="11"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="L130" s="24"/>
+      <c r="M130" s="24"/>
+      <c r="N130" s="24"/>
+      <c r="O130" s="24"/>
+      <c r="P130" s="24"/>
+      <c r="Q130" s="24"/>
+      <c r="R130" s="24"/>
+      <c r="S130" s="51"/>
+      <c r="T130" s="13"/>
+    </row>
+    <row r="131" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B131" s="11"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="31"/>
+      <c r="L131" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="M131" s="30"/>
+      <c r="N131" s="30"/>
+      <c r="O131" s="30"/>
+      <c r="P131" s="30"/>
+      <c r="Q131" s="30"/>
+      <c r="R131" s="30"/>
+      <c r="S131" s="54"/>
+      <c r="T131" s="13"/>
+    </row>
+    <row r="132" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B132" s="11"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="L132" s="12"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
+      <c r="O132" s="12"/>
+      <c r="P132" s="12"/>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="12"/>
+      <c r="S132" s="52"/>
+      <c r="T132" s="13"/>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B133" s="11"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="31"/>
+      <c r="L133" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="M133" s="30"/>
+      <c r="N133" s="30"/>
+      <c r="O133" s="30"/>
+      <c r="P133" s="30"/>
+      <c r="Q133" s="30"/>
+      <c r="R133" s="30"/>
+      <c r="S133" s="54"/>
+      <c r="T133" s="13"/>
+    </row>
+    <row r="134" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B134" s="11"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
+      <c r="O134" s="12"/>
+      <c r="P134" s="12"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="12"/>
+      <c r="S134" s="12"/>
+      <c r="T134" s="13"/>
+    </row>
+    <row r="135" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B135" s="11"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="12"/>
+      <c r="P135" s="12"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="57"/>
+      <c r="S135" s="12"/>
+      <c r="T135" s="13"/>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B136" s="11"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="55" t="s">
+        <v>366</v>
+      </c>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="12"/>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="12"/>
+      <c r="S136" s="12"/>
+      <c r="T136" s="13"/>
+    </row>
+    <row r="137" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B137" s="11"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
+      <c r="O137" s="12"/>
+      <c r="P137" s="12"/>
+      <c r="Q137" s="12"/>
+      <c r="R137" s="12"/>
+      <c r="S137" s="12"/>
+      <c r="T137" s="13"/>
+    </row>
+    <row r="138" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B138" s="11"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="12"/>
+      <c r="O138" s="12"/>
+      <c r="P138" s="12"/>
+      <c r="Q138" s="12"/>
+      <c r="R138" s="12"/>
+      <c r="S138" s="12"/>
+      <c r="T138" s="13"/>
+    </row>
+    <row r="139" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B139" s="11"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="12"/>
+      <c r="P139" s="12"/>
+      <c r="Q139" s="12"/>
+      <c r="R139" s="12"/>
+      <c r="S139" s="12"/>
+      <c r="T139" s="13"/>
+    </row>
+    <row r="140" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B140" s="11"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="12"/>
+      <c r="O140" s="12"/>
+      <c r="P140" s="12"/>
+      <c r="Q140" s="12"/>
+      <c r="R140" s="12"/>
+      <c r="S140" s="12"/>
+      <c r="T140" s="13"/>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B141" s="11"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+      <c r="O141" s="12"/>
+      <c r="P141" s="12"/>
+      <c r="Q141" s="12"/>
+      <c r="R141" s="12"/>
+      <c r="S141" s="12"/>
+      <c r="T141" s="13"/>
+    </row>
+    <row r="142" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B142" s="11"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="12"/>
+      <c r="P142" s="12"/>
+      <c r="Q142" s="12"/>
+      <c r="R142" s="12"/>
+      <c r="S142" s="12"/>
+      <c r="T142" s="13"/>
+    </row>
+    <row r="143" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B143" s="11"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="12"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="13"/>
+    </row>
+    <row r="144" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B144" s="11"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="12"/>
+      <c r="P144" s="12"/>
+      <c r="Q144" s="12"/>
+      <c r="R144" s="12"/>
+      <c r="S144" s="12"/>
+      <c r="T144" s="13"/>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B145" s="11"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="L145" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+      <c r="O145" s="12"/>
+      <c r="P145" s="12"/>
+      <c r="Q145" s="12"/>
+      <c r="R145" s="12"/>
+      <c r="S145" s="12"/>
+      <c r="T145" s="13"/>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B146" s="11"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+      <c r="O146" s="12"/>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="12"/>
+      <c r="R146" s="12"/>
+      <c r="S146" s="12"/>
+      <c r="T146" s="13"/>
+    </row>
+    <row r="147" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B147" s="11"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="M147" s="12"/>
+      <c r="N147" s="12"/>
+      <c r="O147" s="12"/>
+      <c r="P147" s="12"/>
+      <c r="Q147" s="12"/>
+      <c r="R147" s="12"/>
+      <c r="S147" s="12"/>
+      <c r="T147" s="13"/>
+    </row>
+    <row r="148" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B148" s="11"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="M148" s="12"/>
+      <c r="N148" s="12"/>
+      <c r="O148" s="12"/>
+      <c r="P148" s="12"/>
+      <c r="Q148" s="12"/>
+      <c r="R148" s="12"/>
+      <c r="S148" s="12"/>
+      <c r="T148" s="13"/>
+    </row>
+    <row r="149" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B149" s="11"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+      <c r="O149" s="12"/>
+      <c r="P149" s="12"/>
+      <c r="Q149" s="12"/>
+      <c r="R149" s="12"/>
+      <c r="S149" s="12"/>
+      <c r="T149" s="13"/>
+    </row>
+    <row r="150" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B150" s="11"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="12"/>
+      <c r="N150" s="12"/>
+      <c r="O150" s="12"/>
+      <c r="P150" s="12"/>
+      <c r="Q150" s="12"/>
+      <c r="R150" s="12"/>
+      <c r="S150" s="12"/>
+      <c r="T150" s="13"/>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B151" s="11"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+      <c r="O151" s="12"/>
+      <c r="P151" s="12"/>
+      <c r="Q151" s="12"/>
+      <c r="R151" s="12"/>
+      <c r="S151" s="12"/>
+      <c r="T151" s="13"/>
+    </row>
+    <row r="152" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="17"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="18"/>
+      <c r="O152" s="18"/>
+      <c r="P152" s="18"/>
+      <c r="Q152" s="18"/>
+      <c r="R152" s="18"/>
+      <c r="S152" s="18"/>
+      <c r="T152" s="19"/>
+    </row>
+    <row r="159" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>377</v>
+      </c>
+      <c r="C159" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="160" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>250</v>
+      </c>
+      <c r="C165" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C169" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C170" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E6EE9-DEC8-4209-B59F-63407999F375}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13080236-5A82-4054-996D-6C5C00DD2BE7}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8760,17 +14013,260 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13080236-5A82-4054-996D-6C5C00DD2BE7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F108AD-10B5-4803-9828-06701D2E1990}">
+  <dimension ref="B3:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8791,29 +14287,108 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277B4DBB-B8C0-4C25-9C8D-3892A92D649A}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61016261-4D82-4FFD-A74B-6AC70E753A71}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/秋招复习.xlsx
+++ b/秋招复习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E046AD0-D4C8-489F-89EE-0E22CEA1E493}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB20F533-00D5-4175-A613-CDDB14311AA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="842" activeTab="1" xr2:uid="{5E9FDC2C-8DB9-4205-9D67-D631D07F7D3E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="387">
   <si>
     <t>深入编译链接和运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3650,7 +3650,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>允许老的重复分节在网络中的消逝（为什么需要2MSL）</t>
+    <t>1、保证让迟来的tcp报文段有足够的时间被识别并被丢弃（为什么需要2MSL）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、可靠的终止tcp连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>假设ack3丢失了，而且没有time_wait状态，此时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务器端会重传ack2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>而</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户端已经进入closed状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，对服务器发过来的报文段会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回复RST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，产生错误</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10517,7 +10602,7 @@
   <dimension ref="B1:T173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="J149" sqref="J149"/>
+      <selection activeCell="P150" sqref="P150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13835,7 +13920,9 @@
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
       <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
+      <c r="K149" s="12" t="s">
+        <v>384</v>
+      </c>
       <c r="M149" s="12"/>
       <c r="N149" s="12"/>
       <c r="O149" s="12"/>
@@ -13856,7 +13943,9 @@
       <c r="I150" s="12"/>
       <c r="J150" s="12"/>
       <c r="K150" s="12"/>
-      <c r="L150" s="12"/>
+      <c r="L150" s="12" t="s">
+        <v>385</v>
+      </c>
       <c r="M150" s="12"/>
       <c r="N150" s="12"/>
       <c r="O150" s="12"/>
@@ -13877,7 +13966,9 @@
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
       <c r="K151" s="12"/>
-      <c r="L151" s="12"/>
+      <c r="L151" s="37" t="s">
+        <v>386</v>
+      </c>
       <c r="M151" s="12"/>
       <c r="N151" s="12"/>
       <c r="O151" s="12"/>

--- a/秋招复习.xlsx
+++ b/秋招复习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB20F533-00D5-4175-A613-CDDB14311AA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E00872-814C-4382-B178-8F6D30A8576C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="842" activeTab="1" xr2:uid="{5E9FDC2C-8DB9-4205-9D67-D631D07F7D3E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="410">
   <si>
     <t>深入编译链接和运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3736,6 +3736,112 @@
       </rPr>
       <t>，产生错误</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>udp协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可靠的，无连接的数据报服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_wait状态的取消方法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcp的超时重传和拥塞控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时重传：tcp每发送一个报文段，就会开启一个计时器，当超过计时器规定的确认时间之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体重传次数和计时器的时间由其重传策略决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>还没有收到该报文段的确认报文段的话，tcp就会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再次发送该报文段并重置计时器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、快速重传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、快速恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥塞控制：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、慢启动：CWND+=min（SMSS，N），N为上次未被确认的字节数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在的合理性：tcp刚开始并不知道网络的拥塞状况，需要用一种试探的方式平滑增加CWND大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当CWND大于ssthresh（慢启动门限）时，进入拥塞避免阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、拥塞避免：拥塞避免算法使得CWND以线性方式增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现方式1、每个RTT时间内按照CWND+=min（SMSS，N）重新计算CWND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现方式2、没收到一个对新数据的确认报文段，就以该式来更新CWND：CWND+=SMSS*SMSS/CWND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥塞避免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥塞处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送的次数和接收的次数相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度快，适合视频传输，广播等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/sunny-sl/p/6529830.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见http面试题：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3743,7 +3849,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3851,6 +3957,23 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -4202,12 +4325,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4394,9 +4520,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5298,6 +5446,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCADB92B-53F4-4E49-8941-81B3640E9726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="26612851"/>
+          <a:ext cx="5267325" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939FDC09-23E7-40C3-B346-697AB5BAA91A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752726" y="29337000"/>
+          <a:ext cx="4819650" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10599,10 +10835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209E6EE9-DEC8-4209-B59F-63407999F375}">
-  <dimension ref="B1:T173"/>
+  <dimension ref="B1:T197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="P150" sqref="P150"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13866,7 +14102,9 @@
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B147" s="11"/>
-      <c r="C147" s="20"/>
+      <c r="C147" s="62" t="s">
+        <v>389</v>
+      </c>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
@@ -13978,113 +14216,662 @@
       <c r="S151" s="12"/>
       <c r="T151" s="13"/>
     </row>
-    <row r="152" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="17"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
-      <c r="I152" s="18"/>
-      <c r="J152" s="18"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="18"/>
-      <c r="M152" s="18"/>
-      <c r="N152" s="18"/>
-      <c r="O152" s="18"/>
-      <c r="P152" s="18"/>
-      <c r="Q152" s="18"/>
-      <c r="R152" s="18"/>
-      <c r="S152" s="18"/>
-      <c r="T152" s="19"/>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B152" s="11"/>
+      <c r="C152" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="37"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+      <c r="O152" s="12"/>
+      <c r="P152" s="12"/>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="12"/>
+      <c r="S152" s="12"/>
+      <c r="T152" s="13"/>
+    </row>
+    <row r="153" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B153" s="11"/>
+      <c r="C153" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="37"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12"/>
+      <c r="O153" s="12"/>
+      <c r="P153" s="12"/>
+      <c r="Q153" s="12"/>
+      <c r="R153" s="12"/>
+      <c r="S153" s="12"/>
+      <c r="T153" s="13"/>
+    </row>
+    <row r="154" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B154" s="11"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="37"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="12"/>
+      <c r="Q154" s="12"/>
+      <c r="R154" s="12"/>
+      <c r="S154" s="12"/>
+      <c r="T154" s="13"/>
+    </row>
+    <row r="155" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B155" s="11"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="37"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="12"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
+      <c r="S155" s="12"/>
+      <c r="T155" s="13"/>
+    </row>
+    <row r="156" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B156" s="11"/>
+      <c r="C156" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="37"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="12"/>
+      <c r="O156" s="12"/>
+      <c r="P156" s="12"/>
+      <c r="Q156" s="12"/>
+      <c r="R156" s="12"/>
+      <c r="S156" s="12"/>
+      <c r="T156" s="13"/>
+    </row>
+    <row r="157" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B157" s="11"/>
+      <c r="C157" s="42"/>
+      <c r="D157" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="E157" s="24"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="24"/>
+      <c r="H157" s="24"/>
+      <c r="I157" s="24"/>
+      <c r="J157" s="24"/>
+      <c r="K157" s="51"/>
+      <c r="L157" s="37"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="12"/>
+      <c r="O157" s="12"/>
+      <c r="P157" s="12"/>
+      <c r="Q157" s="12"/>
+      <c r="R157" s="12"/>
+      <c r="S157" s="12"/>
+      <c r="T157" s="13"/>
+    </row>
+    <row r="158" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B158" s="11"/>
+      <c r="C158" s="43"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="52"/>
+      <c r="L158" s="37"/>
+      <c r="M158" s="12"/>
+      <c r="N158" s="12"/>
+      <c r="O158" s="12"/>
+      <c r="P158" s="12"/>
+      <c r="Q158" s="12"/>
+      <c r="R158" s="12"/>
+      <c r="S158" s="12"/>
+      <c r="T158" s="13"/>
     </row>
     <row r="159" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
+      <c r="B159" s="11"/>
+      <c r="C159" s="67" t="s">
+        <v>403</v>
+      </c>
+      <c r="D159" s="20"/>
+      <c r="E159" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="52"/>
+      <c r="L159" s="37"/>
+      <c r="M159" s="12"/>
+      <c r="N159" s="12"/>
+      <c r="O159" s="12"/>
+      <c r="P159" s="12"/>
+      <c r="Q159" s="12"/>
+      <c r="R159" s="12"/>
+      <c r="S159" s="12"/>
+      <c r="T159" s="13"/>
+    </row>
+    <row r="160" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B160" s="11"/>
+      <c r="C160" s="43"/>
+      <c r="D160" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="52"/>
+      <c r="L160" s="37"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="12"/>
+      <c r="O160" s="12"/>
+      <c r="P160" s="12"/>
+      <c r="Q160" s="12"/>
+      <c r="R160" s="12"/>
+      <c r="S160" s="12"/>
+      <c r="T160" s="13"/>
+    </row>
+    <row r="161" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B161" s="11"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="52"/>
+      <c r="L161" s="37"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="12"/>
+      <c r="O161" s="12"/>
+      <c r="P161" s="12"/>
+      <c r="Q161" s="12"/>
+      <c r="R161" s="12"/>
+      <c r="S161" s="12"/>
+      <c r="T161" s="13"/>
+    </row>
+    <row r="162" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B162" s="11"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="31"/>
+      <c r="E162" s="63" t="s">
+        <v>402</v>
+      </c>
+      <c r="F162" s="30"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="30"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="54"/>
+      <c r="L162" s="37"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+      <c r="O162" s="12"/>
+      <c r="P162" s="12"/>
+      <c r="Q162" s="12"/>
+      <c r="R162" s="12"/>
+      <c r="S162" s="12"/>
+      <c r="T162" s="13"/>
+    </row>
+    <row r="163" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B163" s="11"/>
+      <c r="C163" s="42"/>
+      <c r="D163" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="51"/>
+      <c r="L163" s="37"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="12"/>
+      <c r="O163" s="12"/>
+      <c r="P163" s="12"/>
+      <c r="Q163" s="12"/>
+      <c r="R163" s="12"/>
+      <c r="S163" s="12"/>
+      <c r="T163" s="13"/>
+    </row>
+    <row r="164" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B164" s="11"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="65"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="52"/>
+      <c r="L164" s="37"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="12"/>
+      <c r="P164" s="12"/>
+      <c r="Q164" s="12"/>
+      <c r="R164" s="12"/>
+      <c r="S164" s="12"/>
+      <c r="T164" s="13"/>
+    </row>
+    <row r="165" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B165" s="11"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="65"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="52"/>
+      <c r="L165" s="37"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="12"/>
+      <c r="P165" s="12"/>
+      <c r="Q165" s="12"/>
+      <c r="R165" s="12"/>
+      <c r="S165" s="12"/>
+      <c r="T165" s="13"/>
+    </row>
+    <row r="166" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B166" s="11"/>
+      <c r="C166" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="D166" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="52"/>
+      <c r="L166" s="37"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+      <c r="O166" s="12"/>
+      <c r="P166" s="12"/>
+      <c r="Q166" s="12"/>
+      <c r="R166" s="12"/>
+      <c r="S166" s="12"/>
+      <c r="T166" s="13"/>
+    </row>
+    <row r="167" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B167" s="11"/>
+      <c r="C167" s="43"/>
+      <c r="D167" s="65"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="52"/>
+      <c r="L167" s="37"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+      <c r="O167" s="12"/>
+      <c r="P167" s="12"/>
+      <c r="Q167" s="12"/>
+      <c r="R167" s="12"/>
+      <c r="S167" s="12"/>
+      <c r="T167" s="13"/>
+    </row>
+    <row r="168" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B168" s="11"/>
+      <c r="C168" s="44"/>
+      <c r="D168" s="66"/>
+      <c r="E168" s="30"/>
+      <c r="F168" s="30"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="30"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
+      <c r="K168" s="54"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="12"/>
+      <c r="P168" s="12"/>
+      <c r="Q168" s="12"/>
+      <c r="R168" s="12"/>
+      <c r="S168" s="12"/>
+      <c r="T168" s="13"/>
+    </row>
+    <row r="169" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B169" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="C169" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="D169" s="24"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="24"/>
+      <c r="H169" s="24"/>
+      <c r="I169" s="24"/>
+      <c r="J169" s="24"/>
+      <c r="K169" s="24"/>
+      <c r="L169" s="24"/>
+      <c r="M169" s="24"/>
+      <c r="N169" s="24"/>
+      <c r="O169" s="24"/>
+      <c r="P169" s="24"/>
+      <c r="Q169" s="24"/>
+      <c r="R169" s="24"/>
+      <c r="S169" s="24"/>
+      <c r="T169" s="25"/>
+    </row>
+    <row r="170" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B170" s="11"/>
+      <c r="C170" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="12"/>
+      <c r="P170" s="12"/>
+      <c r="Q170" s="12"/>
+      <c r="R170" s="12"/>
+      <c r="S170" s="12"/>
+      <c r="T170" s="13"/>
+    </row>
+    <row r="171" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B171" s="39"/>
+      <c r="C171" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="30"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
+      <c r="K171" s="30"/>
+      <c r="L171" s="63"/>
+      <c r="M171" s="30"/>
+      <c r="N171" s="30"/>
+      <c r="O171" s="30"/>
+      <c r="P171" s="30"/>
+      <c r="Q171" s="30"/>
+      <c r="R171" s="30"/>
+      <c r="S171" s="30"/>
+      <c r="T171" s="32"/>
+    </row>
+    <row r="172" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B172" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="37"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="12"/>
+      <c r="P172" s="12"/>
+      <c r="Q172" s="12"/>
+      <c r="R172" s="12"/>
+      <c r="S172" s="12"/>
+      <c r="T172" s="13"/>
+    </row>
+    <row r="173" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B173" s="11"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="68" t="s">
+        <v>408</v>
+      </c>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="37"/>
+      <c r="M173" s="12"/>
+      <c r="N173" s="12"/>
+      <c r="O173" s="12"/>
+      <c r="P173" s="12"/>
+      <c r="Q173" s="12"/>
+      <c r="R173" s="12"/>
+      <c r="S173" s="12"/>
+      <c r="T173" s="13"/>
+    </row>
+    <row r="174" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B174" s="11"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="37"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="12"/>
+      <c r="P174" s="12"/>
+      <c r="Q174" s="12"/>
+      <c r="R174" s="12"/>
+      <c r="S174" s="12"/>
+      <c r="T174" s="13"/>
+    </row>
+    <row r="175" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B175" s="11"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="37"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+      <c r="O175" s="12"/>
+      <c r="P175" s="12"/>
+      <c r="Q175" s="12"/>
+      <c r="R175" s="12"/>
+      <c r="S175" s="12"/>
+      <c r="T175" s="13"/>
+    </row>
+    <row r="176" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="17"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="18"/>
+      <c r="G176" s="18"/>
+      <c r="H176" s="18"/>
+      <c r="I176" s="18"/>
+      <c r="J176" s="18"/>
+      <c r="K176" s="18"/>
+      <c r="L176" s="18"/>
+      <c r="M176" s="18"/>
+      <c r="N176" s="18"/>
+      <c r="O176" s="18"/>
+      <c r="P176" s="18"/>
+      <c r="Q176" s="18"/>
+      <c r="R176" s="18"/>
+      <c r="S176" s="18"/>
+      <c r="T176" s="19"/>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
         <v>377</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C183" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C160" t="s">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C184" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C161" t="s">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C162" t="s">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C186" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C163" t="s">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C187" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C164" t="s">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C188" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B165" t="s">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
         <v>250</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C189" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C166" t="s">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C190" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C167" t="s">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C191" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C168" t="s">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C192" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C169" t="s">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C170" t="s">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C171" t="s">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C195" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C172" t="s">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C173" t="s">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C197" t="s">
         <v>259</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D173" r:id="rId1" xr:uid="{CB17BB23-3758-4B08-991C-0A6063FF81E5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
